--- a/Tables/Table5_T1EandPower_Meta.xlsx
+++ b/Tables/Table5_T1EandPower_Meta.xlsx
@@ -8,23 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aarhus\Courses\Thesis\An-evaluation-of-software-for-performing-GWAS-mixed-model-association-analysis\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{384A8427-8397-49B8-9DCF-112E2BABDBD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D827CA6-0E6D-410A-9640-C8B9709B223F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="T1" sheetId="1" r:id="rId1"/>
-    <sheet name="T2" sheetId="2" r:id="rId2"/>
-    <sheet name="T3" sheetId="3" r:id="rId3"/>
-    <sheet name="T4" sheetId="4" r:id="rId4"/>
-    <sheet name="T5" sheetId="5" r:id="rId5"/>
-    <sheet name="T6" sheetId="6" r:id="rId6"/>
-    <sheet name="T25" sheetId="7" r:id="rId7"/>
-    <sheet name="T26" sheetId="8" r:id="rId8"/>
-    <sheet name="T27" sheetId="9" r:id="rId9"/>
-    <sheet name="T28" sheetId="10" r:id="rId10"/>
-    <sheet name="T29" sheetId="11" r:id="rId11"/>
-    <sheet name="T30" sheetId="12" r:id="rId12"/>
+    <sheet name="Sheet1" sheetId="13" r:id="rId1"/>
+    <sheet name="T1" sheetId="1" r:id="rId2"/>
+    <sheet name="T2" sheetId="2" r:id="rId3"/>
+    <sheet name="T3" sheetId="3" r:id="rId4"/>
+    <sheet name="T4" sheetId="4" r:id="rId5"/>
+    <sheet name="T5" sheetId="5" r:id="rId6"/>
+    <sheet name="T6" sheetId="6" r:id="rId7"/>
+    <sheet name="T25" sheetId="7" r:id="rId8"/>
+    <sheet name="T26" sheetId="8" r:id="rId9"/>
+    <sheet name="T27" sheetId="9" r:id="rId10"/>
+    <sheet name="T28" sheetId="10" r:id="rId11"/>
+    <sheet name="T29" sheetId="11" r:id="rId12"/>
+    <sheet name="T30" sheetId="12" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="25">
   <si>
     <t>META_LDAK</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -96,6 +97,58 @@
     <t>Memory Max</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Trait</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t># Phenotypes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Individuals</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>h2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Causal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Model</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quantitative</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>66688 inds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000 Causals</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GCTA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000 Causals</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Binary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -124,12 +177,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -144,10 +209,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -427,11 +494,348 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A0E883A-3A11-4F4B-8325-2824534FE6B4}">
+  <dimension ref="A1:G25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="7" width="16.58203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2">
+        <v>0.1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3">
+        <v>0.5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4">
+        <v>0.9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>0.1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>0.5</v>
+      </c>
+      <c r="F6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>0.9</v>
+      </c>
+      <c r="F7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>25</v>
+      </c>
+      <c r="B8" s="4">
+        <v>5</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>26</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9">
+        <v>0.5</v>
+      </c>
+      <c r="F9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>27</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>0.9</v>
+      </c>
+      <c r="F10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>28</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>0.1</v>
+      </c>
+      <c r="F11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>29</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>0.5</v>
+      </c>
+      <c r="F12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>30</v>
+      </c>
+      <c r="B13">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13">
+        <v>0.9</v>
+      </c>
+      <c r="F13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D20" s="3"/>
+    </row>
+    <row r="21" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D22" s="3"/>
+    </row>
+    <row r="23" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D24" s="3"/>
+    </row>
+    <row r="25" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D25" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC27B712-70FD-4C8F-8A04-C84C468A46F1}">
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -584,11 +988,10 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62C62152-1CAE-40FF-BDBB-B2FDB3C35821}">
   <dimension ref="A1:I13"/>
   <sheetViews>
@@ -749,7 +1152,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1F6FFF6-F1D3-40E0-A85E-6F134C7B5461}">
   <dimension ref="A1:I13"/>
   <sheetViews>
@@ -910,11 +1313,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F9CDDA7-47FE-4C2B-B7DB-128EECE88BE5}">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -1072,11 +1475,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAAA71DA-956C-4EF7-AD44-7F87EDB341E8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1120,6 +1523,21 @@
       <c r="B2">
         <v>1</v>
       </c>
+      <c r="C2">
+        <v>8.6E-3</v>
+      </c>
+      <c r="D2">
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="E2">
+        <v>0.50004196078065699</v>
+      </c>
+      <c r="F2">
+        <v>0.63636363636363602</v>
+      </c>
+      <c r="G2">
+        <v>7</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -1128,7 +1546,21 @@
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3" s="1"/>
+      <c r="C3" s="1">
+        <v>8.3999999999999995E-3</v>
+      </c>
+      <c r="D3">
+        <v>1.4E-3</v>
+      </c>
+      <c r="E3">
+        <v>0.500041947872777</v>
+      </c>
+      <c r="F3">
+        <v>0.63636363636363602</v>
+      </c>
+      <c r="G3">
+        <v>7</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -1137,7 +1569,21 @@
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4" s="1"/>
+      <c r="C4" s="1">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="D4">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="E4">
+        <v>1.5626165207826499</v>
+      </c>
+      <c r="F4">
+        <v>0.45454545454545497</v>
+      </c>
+      <c r="G4">
+        <v>5</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -1146,7 +1592,21 @@
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="D5" s="1"/>
+      <c r="C5">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="E5">
+        <v>0.500041947872777</v>
+      </c>
+      <c r="F5">
+        <v>0.63636363636363602</v>
+      </c>
+      <c r="G5">
+        <v>7</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -1155,8 +1615,21 @@
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+      <c r="C6" s="1">
+        <v>9.7999999999999997E-3</v>
+      </c>
+      <c r="D6" s="1">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="E6">
+        <v>0.89297367015715901</v>
+      </c>
+      <c r="F6">
+        <v>1.5454545454545501</v>
+      </c>
+      <c r="G6">
+        <v>17</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -1165,11 +1638,26 @@
       <c r="B7" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
+      <c r="C7" s="2">
+        <f>AVERAGE(C2:C6)</f>
+        <v>1.056E-2</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" ref="D7:G7" si="0">AVERAGE(D2:D6)</f>
+        <v>1.8400000000000001E-3</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.79114320949320394</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.78181818181818274</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="0"/>
+        <v>8.6</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -1178,6 +1666,21 @@
       <c r="B8">
         <v>1</v>
       </c>
+      <c r="C8">
+        <v>9.1999999999999998E-3</v>
+      </c>
+      <c r="D8">
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="E8">
+        <v>0.500041947872777</v>
+      </c>
+      <c r="F8">
+        <v>0.63636363636363602</v>
+      </c>
+      <c r="G8">
+        <v>7</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -1186,6 +1689,21 @@
       <c r="B9">
         <v>2</v>
       </c>
+      <c r="C9">
+        <v>8.3999999999999995E-3</v>
+      </c>
+      <c r="D9">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="E9">
+        <v>0.500041947872777</v>
+      </c>
+      <c r="F9">
+        <v>0.63636363636363602</v>
+      </c>
+      <c r="G9">
+        <v>7</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -1194,7 +1712,21 @@
       <c r="B10">
         <v>3</v>
       </c>
-      <c r="D10" s="1"/>
+      <c r="C10">
+        <v>8.8000000000000005E-3</v>
+      </c>
+      <c r="D10" s="1">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="E10">
+        <v>2.40016778914497</v>
+      </c>
+      <c r="F10">
+        <v>0.36363636363636398</v>
+      </c>
+      <c r="G10">
+        <v>4</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -1203,6 +1735,21 @@
       <c r="B11">
         <v>4</v>
       </c>
+      <c r="C11">
+        <v>1.6799999999999999E-2</v>
+      </c>
+      <c r="D11">
+        <v>4.4000000000000003E-3</v>
+      </c>
+      <c r="E11">
+        <v>0.500041947872777</v>
+      </c>
+      <c r="F11">
+        <v>0.63636363636363602</v>
+      </c>
+      <c r="G11">
+        <v>7</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -1211,7 +1758,21 @@
       <c r="B12">
         <v>5</v>
       </c>
-      <c r="D12" s="1"/>
+      <c r="C12">
+        <v>0.01</v>
+      </c>
+      <c r="D12" s="1">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="E12">
+        <v>0.346195795590791</v>
+      </c>
+      <c r="F12">
+        <v>1.36363636363636</v>
+      </c>
+      <c r="G12">
+        <v>15</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -1220,24 +1781,40 @@
       <c r="B13" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
+      <c r="C13" s="2">
+        <f>AVERAGE(C8:C12)</f>
+        <v>1.064E-2</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" ref="D13:G13" si="1">AVERAGE(D8:D12)</f>
+        <v>1.8400000000000001E-3</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="1"/>
+        <v>0.84929788567081843</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="1"/>
+        <v>0.7272727272727264</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{187587CD-8352-4BCD-AE7D-075D1C35E026}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAAA71DA-956C-4EF7-AD44-7F87EDB341E8}">
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="C7" sqref="C7:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1281,6 +1858,21 @@
       <c r="B2">
         <v>1</v>
       </c>
+      <c r="C2">
+        <v>6.4199999999999993E-2</v>
+      </c>
+      <c r="D2">
+        <v>3.3799999999999997E-2</v>
+      </c>
+      <c r="E2">
+        <v>2.4001678407750502</v>
+      </c>
+      <c r="F2">
+        <v>0.36363636363636398</v>
+      </c>
+      <c r="G2">
+        <v>4</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -1289,7 +1881,21 @@
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3" s="1"/>
+      <c r="C3" s="1">
+        <v>5.6599999999999998E-2</v>
+      </c>
+      <c r="D3">
+        <v>2.76E-2</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0.90909090909090895</v>
+      </c>
+      <c r="G3">
+        <v>10</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -1298,7 +1904,21 @@
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4" s="1"/>
+      <c r="C4" s="1">
+        <v>6.54E-2</v>
+      </c>
+      <c r="D4">
+        <v>3.4799999999999998E-2</v>
+      </c>
+      <c r="E4">
+        <v>0.94125104423670403</v>
+      </c>
+      <c r="F4">
+        <v>0.54545454545454497</v>
+      </c>
+      <c r="G4">
+        <v>6</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -1307,7 +1927,21 @@
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="D5" s="1"/>
+      <c r="C5">
+        <v>0.11559999999999999</v>
+      </c>
+      <c r="D5" s="1">
+        <v>6.1400000000000003E-2</v>
+      </c>
+      <c r="E5">
+        <v>0.94125104423670403</v>
+      </c>
+      <c r="F5">
+        <v>0.54545454545454497</v>
+      </c>
+      <c r="G5">
+        <v>6</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -1316,8 +1950,21 @@
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+      <c r="C6" s="1">
+        <v>5.74E-2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2.86E-2</v>
+      </c>
+      <c r="E6">
+        <v>1.5626165207826499</v>
+      </c>
+      <c r="F6">
+        <v>0.45454545454545497</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -1326,11 +1973,26 @@
       <c r="B7" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
+      <c r="C7" s="2">
+        <f>AVERAGE(C2:C6)</f>
+        <v>7.1839999999999987E-2</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" ref="D7:G7" si="0">AVERAGE(D2:D6)</f>
+        <v>3.7239999999999995E-2</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="0"/>
+        <v>1.1690572900062217</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.5636363636363636</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="0"/>
+        <v>6.2</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -1339,6 +2001,21 @@
       <c r="B8">
         <v>1</v>
       </c>
+      <c r="C8">
+        <v>7.1400000000000005E-2</v>
+      </c>
+      <c r="D8">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="E8">
+        <v>1.5626165207826499</v>
+      </c>
+      <c r="F8">
+        <v>0.45454545454545497</v>
+      </c>
+      <c r="G8">
+        <v>5</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -1347,6 +2024,21 @@
       <c r="B9">
         <v>2</v>
       </c>
+      <c r="C9">
+        <v>6.4199999999999993E-2</v>
+      </c>
+      <c r="D9">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="E9">
+        <v>0.21054495937538101</v>
+      </c>
+      <c r="F9">
+        <v>0.72727272727272696</v>
+      </c>
+      <c r="G9">
+        <v>8</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -1355,7 +2047,21 @@
       <c r="B10">
         <v>3</v>
       </c>
-      <c r="D10" s="1"/>
+      <c r="C10">
+        <v>7.5600000000000001E-2</v>
+      </c>
+      <c r="D10" s="1">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>11</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -1364,6 +2070,21 @@
       <c r="B11">
         <v>4</v>
       </c>
+      <c r="C11">
+        <v>0.12859999999999999</v>
+      </c>
+      <c r="D11">
+        <v>7.1800000000000003E-2</v>
+      </c>
+      <c r="E11">
+        <v>0.94125104423670403</v>
+      </c>
+      <c r="F11">
+        <v>0.54545454545454497</v>
+      </c>
+      <c r="G11">
+        <v>6</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -1372,7 +2093,21 @@
       <c r="B12">
         <v>5</v>
       </c>
-      <c r="D12" s="1"/>
+      <c r="C12">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="D12" s="1">
+        <v>3.4200000000000001E-2</v>
+      </c>
+      <c r="E12">
+        <v>4.9233752121096703</v>
+      </c>
+      <c r="F12">
+        <v>0.18181818181818199</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -1381,11 +2116,26 @@
       <c r="B13" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
+      <c r="C13" s="2">
+        <f>AVERAGE(C8:C12)</f>
+        <v>8.0960000000000004E-2</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" ref="D13:G13" si="1">AVERAGE(D8:D12)</f>
+        <v>4.3800000000000006E-2</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="1"/>
+        <v>1.5275575473008811</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="1"/>
+        <v>0.58181818181818179</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="1"/>
+        <v>6.4</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1394,11 +2144,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{404384F2-66AB-4D9C-995D-D69F554B90AB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{187587CD-8352-4BCD-AE7D-075D1C35E026}">
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="C13" sqref="C13:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1442,6 +2192,21 @@
       <c r="B2">
         <v>1</v>
       </c>
+      <c r="C2">
+        <v>9.1800000000000007E-2</v>
+      </c>
+      <c r="D2">
+        <v>5.3400000000000003E-2</v>
+      </c>
+      <c r="E2">
+        <v>0.941251067183833</v>
+      </c>
+      <c r="F2">
+        <v>0.54545454545454497</v>
+      </c>
+      <c r="G2">
+        <v>6</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -1450,7 +2215,21 @@
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3" s="1"/>
+      <c r="C3" s="1">
+        <v>9.5200000000000007E-2</v>
+      </c>
+      <c r="D3">
+        <v>5.5800000000000002E-2</v>
+      </c>
+      <c r="E3">
+        <v>1.5626165207826499</v>
+      </c>
+      <c r="F3">
+        <v>0.45454545454545497</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -1459,7 +2238,21 @@
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4" s="1"/>
+      <c r="C4" s="1">
+        <v>9.06E-2</v>
+      </c>
+      <c r="D4">
+        <v>5.5599999999999997E-2</v>
+      </c>
+      <c r="E4">
+        <v>2.40016778914497</v>
+      </c>
+      <c r="F4">
+        <v>0.36363636363636398</v>
+      </c>
+      <c r="G4">
+        <v>4</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -1468,7 +2261,21 @@
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="D5" s="1"/>
+      <c r="C5">
+        <v>0.16059999999999999</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.1028</v>
+      </c>
+      <c r="E5">
+        <v>6.7503775202975396</v>
+      </c>
+      <c r="F5">
+        <v>9.0909090909090898E-2</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -1477,8 +2284,21 @@
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+      <c r="C6" s="1">
+        <v>9.2600000000000002E-2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>5.5599999999999997E-2</v>
+      </c>
+      <c r="E6">
+        <v>1.5626165207826499</v>
+      </c>
+      <c r="F6">
+        <v>0.45454545454545497</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -1487,11 +2307,26 @@
       <c r="B7" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
+      <c r="C7" s="2">
+        <f>AVERAGE(C2:C6)</f>
+        <v>0.10616</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" ref="D7:G7" si="0">AVERAGE(D2:D6)</f>
+        <v>6.4640000000000003E-2</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="0"/>
+        <v>2.6434058836383283</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.38181818181818195</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="0"/>
+        <v>4.2</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -1500,6 +2335,21 @@
       <c r="B8">
         <v>1</v>
       </c>
+      <c r="C8">
+        <v>0.11260000000000001</v>
+      </c>
+      <c r="D8">
+        <v>8.0399999999999999E-2</v>
+      </c>
+      <c r="E8">
+        <v>4.9233752121096703</v>
+      </c>
+      <c r="F8">
+        <v>0.18181818181818199</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -1508,6 +2358,21 @@
       <c r="B9">
         <v>2</v>
       </c>
+      <c r="C9">
+        <v>0.1174</v>
+      </c>
+      <c r="D9">
+        <v>8.1799999999999998E-2</v>
+      </c>
+      <c r="E9">
+        <v>6.7503775202975396</v>
+      </c>
+      <c r="F9">
+        <v>9.0909090909090898E-2</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -1516,7 +2381,21 @@
       <c r="B10">
         <v>3</v>
       </c>
-      <c r="D10" s="1"/>
+      <c r="C10">
+        <v>0.11360000000000001</v>
+      </c>
+      <c r="D10" s="1">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="E10">
+        <v>2.40016778914497</v>
+      </c>
+      <c r="F10">
+        <v>0.36363636363636398</v>
+      </c>
+      <c r="G10">
+        <v>4</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -1525,6 +2404,21 @@
       <c r="B11">
         <v>4</v>
       </c>
+      <c r="C11">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="D11">
+        <v>0.1462</v>
+      </c>
+      <c r="E11">
+        <v>6.7503775202975396</v>
+      </c>
+      <c r="F11">
+        <v>9.0909090909090898E-2</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -1533,7 +2427,21 @@
       <c r="B12">
         <v>5</v>
       </c>
-      <c r="D12" s="1"/>
+      <c r="C12">
+        <v>0.1132</v>
+      </c>
+      <c r="D12" s="1">
+        <v>7.9799999999999996E-2</v>
+      </c>
+      <c r="E12">
+        <v>6.7503775202975396</v>
+      </c>
+      <c r="F12">
+        <v>9.0909090909090898E-2</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -1542,11 +2450,26 @@
       <c r="B13" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
+      <c r="C13" s="2">
+        <f>AVERAGE(C8:C12)</f>
+        <v>0.13195999999999999</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" ref="D13:G13" si="1">AVERAGE(D8:D12)</f>
+        <v>9.4079999999999997E-2</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="1"/>
+        <v>5.5149351124294519</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="1"/>
+        <v>0.16363636363636375</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="1"/>
+        <v>1.8</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1555,11 +2478,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FE60E72-8E44-44FC-A121-635D3D54B773}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{404384F2-66AB-4D9C-995D-D69F554B90AB}">
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="C13" sqref="C13:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1603,6 +2526,21 @@
       <c r="B2">
         <v>1</v>
       </c>
+      <c r="C2">
+        <v>2.2000000000000001E-4</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>5.0004662352436599E-2</v>
+      </c>
+      <c r="F2">
+        <v>0.81818181818181801</v>
+      </c>
+      <c r="G2">
+        <v>9</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -1611,7 +2549,21 @@
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3" s="1"/>
+      <c r="C3" s="1">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>5.0004660918200897E-2</v>
+      </c>
+      <c r="F3">
+        <v>0.81818181818181801</v>
+      </c>
+      <c r="G3">
+        <v>9</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -1620,7 +2572,21 @@
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4" s="1"/>
+      <c r="C4" s="1">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1.0909090909090899</v>
+      </c>
+      <c r="G4">
+        <v>12</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -1629,7 +2595,21 @@
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="D5" s="1"/>
+      <c r="C5">
+        <v>1.3999999999999999E-4</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1.0909090909090899</v>
+      </c>
+      <c r="G5">
+        <v>12</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -1638,8 +2618,21 @@
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+      <c r="C6" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0.21054495937538101</v>
+      </c>
+      <c r="F6">
+        <v>0.72727272727272696</v>
+      </c>
+      <c r="G6">
+        <v>8</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -1648,11 +2641,26 @@
       <c r="B7" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
+      <c r="C7" s="2">
+        <f>AVERAGE(C2:C6)</f>
+        <v>1.36E-4</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" ref="D7:G7" si="0">AVERAGE(D2:D6)</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="0"/>
+        <v>6.2110856529203694E-2</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.90909090909090851</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -1661,6 +2669,21 @@
       <c r="B8">
         <v>1</v>
       </c>
+      <c r="C8">
+        <v>1.6000000000000001E-4</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0.90909090909090895</v>
+      </c>
+      <c r="G8">
+        <v>10</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -1669,6 +2692,21 @@
       <c r="B9">
         <v>2</v>
       </c>
+      <c r="C9" s="1">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0.500041947872777</v>
+      </c>
+      <c r="F9">
+        <v>0.63636363636363602</v>
+      </c>
+      <c r="G9">
+        <v>7</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -1677,7 +2715,21 @@
       <c r="B10">
         <v>3</v>
       </c>
-      <c r="D10" s="1"/>
+      <c r="C10">
+        <v>1.6000000000000001E-4</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>11</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -1686,6 +2738,21 @@
       <c r="B11">
         <v>4</v>
       </c>
+      <c r="C11">
+        <v>1.3999999999999999E-4</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>11</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -1694,7 +2761,21 @@
       <c r="B12">
         <v>5</v>
       </c>
-      <c r="D12" s="1"/>
+      <c r="C12" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0.500041947872777</v>
+      </c>
+      <c r="F12">
+        <v>0.63636363636363602</v>
+      </c>
+      <c r="G12">
+        <v>7</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -1703,11 +2784,26 @@
       <c r="B13" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
+      <c r="C13" s="2">
+        <f>AVERAGE(C8:C12)</f>
+        <v>1.16E-4</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" ref="D13:G13" si="1">AVERAGE(D8:D12)</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="1"/>
+        <v>0.20001677914911081</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="1"/>
+        <v>0.8363636363636362</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="1"/>
+        <v>9.1999999999999993</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1716,11 +2812,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{315763ED-3337-484B-B380-835732FE8D66}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FE60E72-8E44-44FC-A121-635D3D54B773}">
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="C13" sqref="C13:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1764,6 +2860,21 @@
       <c r="B2">
         <v>1</v>
       </c>
+      <c r="C2">
+        <v>2.98E-3</v>
+      </c>
+      <c r="D2">
+        <v>1.2E-4</v>
+      </c>
+      <c r="E2">
+        <v>3.5002284488787399</v>
+      </c>
+      <c r="F2">
+        <v>0.27272727272727298</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -1772,7 +2883,21 @@
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3" s="1"/>
+      <c r="C3" s="1">
+        <v>3.6800000000000001E-3</v>
+      </c>
+      <c r="D3">
+        <v>3.6000000000000002E-4</v>
+      </c>
+      <c r="E3">
+        <v>6.7503775202975396</v>
+      </c>
+      <c r="F3">
+        <v>9.0909090909090898E-2</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -1781,7 +2906,21 @@
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4" s="1"/>
+      <c r="C4" s="1">
+        <v>1.98E-3</v>
+      </c>
+      <c r="D4" s="1">
+        <v>8.0000000000000007E-5</v>
+      </c>
+      <c r="E4">
+        <v>4.9233752121096703</v>
+      </c>
+      <c r="F4">
+        <v>0.18181818181818199</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -1790,7 +2929,21 @@
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="D5" s="1"/>
+      <c r="C5">
+        <v>6.1599999999999997E-3</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1.2199999999999999E-3</v>
+      </c>
+      <c r="E5">
+        <v>2.40016778914497</v>
+      </c>
+      <c r="F5">
+        <v>0.36363636363636398</v>
+      </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -1799,8 +2952,21 @@
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+      <c r="C6" s="1">
+        <v>2.7200000000000002E-3</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="E6">
+        <v>6.7503775202975396</v>
+      </c>
+      <c r="F6">
+        <v>9.0909090909090898E-2</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -1809,11 +2975,26 @@
       <c r="B7" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
+      <c r="C7" s="2">
+        <f>AVERAGE(C2:C6)</f>
+        <v>3.5040000000000002E-3</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" ref="D7:G7" si="0">AVERAGE(D2:D6)</f>
+        <v>3.7599999999999998E-4</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="0"/>
+        <v>4.8649052981456915</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.20000000000000012</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="0"/>
+        <v>2.2000000000000002</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -1822,6 +3003,21 @@
       <c r="B8">
         <v>1</v>
       </c>
+      <c r="C8">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="D8">
+        <v>1.8000000000000001E-4</v>
+      </c>
+      <c r="E8">
+        <v>6.7503775202975396</v>
+      </c>
+      <c r="F8">
+        <v>9.0909090909090898E-2</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -1830,6 +3026,21 @@
       <c r="B9">
         <v>2</v>
       </c>
+      <c r="C9">
+        <v>4.1200000000000004E-3</v>
+      </c>
+      <c r="D9">
+        <v>6.2E-4</v>
+      </c>
+      <c r="E9">
+        <v>6.7503775202975396</v>
+      </c>
+      <c r="F9">
+        <v>9.0909090909090898E-2</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -1838,7 +3049,21 @@
       <c r="B10">
         <v>3</v>
       </c>
-      <c r="D10" s="1"/>
+      <c r="C10">
+        <v>2.4199999999999998E-3</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1.6000000000000001E-4</v>
+      </c>
+      <c r="E10">
+        <v>3.50022837860512</v>
+      </c>
+      <c r="F10">
+        <v>0.27272727272727298</v>
+      </c>
+      <c r="G10">
+        <v>3</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -1847,6 +3072,21 @@
       <c r="B11">
         <v>4</v>
       </c>
+      <c r="C11">
+        <v>7.4400000000000004E-3</v>
+      </c>
+      <c r="D11">
+        <v>1.3799999999999999E-3</v>
+      </c>
+      <c r="E11">
+        <v>3.50022837860512</v>
+      </c>
+      <c r="F11">
+        <v>0.27272727272727298</v>
+      </c>
+      <c r="G11">
+        <v>3</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -1855,7 +3095,21 @@
       <c r="B12">
         <v>5</v>
       </c>
-      <c r="D12" s="1"/>
+      <c r="C12">
+        <v>3.2000000000000002E-3</v>
+      </c>
+      <c r="D12" s="1">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="E12">
+        <v>6.7503775202975396</v>
+      </c>
+      <c r="F12">
+        <v>9.0909090909090898E-2</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -1864,11 +3118,26 @@
       <c r="B13" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
+      <c r="C13" s="2">
+        <f>AVERAGE(C8:C12)</f>
+        <v>4.1159999999999999E-3</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" ref="D13:G13" si="1">AVERAGE(D8:D12)</f>
+        <v>5.4800000000000009E-4</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="1"/>
+        <v>5.4503178636205716</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="1"/>
+        <v>0.16363636363636375</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="1"/>
+        <v>1.8</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1877,6 +3146,340 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{315763ED-3337-484B-B380-835732FE8D66}">
+  <dimension ref="A1:I13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="9" width="16.58203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>7.7200000000000003E-3</v>
+      </c>
+      <c r="D2">
+        <v>1.24E-3</v>
+      </c>
+      <c r="E2">
+        <v>3.5002284488787399</v>
+      </c>
+      <c r="F2">
+        <v>0.27272727272727298</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>8.2799999999999992E-3</v>
+      </c>
+      <c r="D3">
+        <v>1.0399999999999999E-3</v>
+      </c>
+      <c r="E3">
+        <v>1.5626165207826499</v>
+      </c>
+      <c r="F3">
+        <v>0.45454545454545497</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1">
+        <v>8.9800000000000001E-3</v>
+      </c>
+      <c r="D4">
+        <v>2.3999999999999998E-3</v>
+      </c>
+      <c r="E4">
+        <v>9.0913751631782596</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>1.32E-2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1.6199999999999999E-3</v>
+      </c>
+      <c r="E5">
+        <v>9.0913751631782596</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1.102E-2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>3.2599999999999999E-3</v>
+      </c>
+      <c r="E6">
+        <v>3.50022837860512</v>
+      </c>
+      <c r="F6">
+        <v>0.27272727272727298</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2">
+        <f>AVERAGE(C2:C6)</f>
+        <v>9.8400000000000015E-3</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" ref="D7:G7" si="0">AVERAGE(D2:D6)</f>
+        <v>1.9119999999999999E-3</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="0"/>
+        <v>5.3491647349246056</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.20000000000000018</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="0"/>
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1.324E-2</v>
+      </c>
+      <c r="D8">
+        <v>2.5999999999999999E-3</v>
+      </c>
+      <c r="E8">
+        <v>6.7503776364619696</v>
+      </c>
+      <c r="F8">
+        <v>9.0909090909090898E-2</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>1.55E-2</v>
+      </c>
+      <c r="D9">
+        <v>2.6800000000000001E-3</v>
+      </c>
+      <c r="E9">
+        <v>6.7503775202975396</v>
+      </c>
+      <c r="F9">
+        <v>9.0909090909090898E-2</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>1.546E-2</v>
+      </c>
+      <c r="D10" s="1">
+        <v>4.2199999999999998E-3</v>
+      </c>
+      <c r="E10">
+        <v>6.7503775202975396</v>
+      </c>
+      <c r="F10">
+        <v>9.0909090909090898E-2</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>2.3220000000000001E-2</v>
+      </c>
+      <c r="D11">
+        <v>5.94E-3</v>
+      </c>
+      <c r="E11">
+        <v>4.9233752121096703</v>
+      </c>
+      <c r="F11">
+        <v>0.18181818181818199</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="D12" s="1">
+        <v>5.0800000000000003E-3</v>
+      </c>
+      <c r="E12">
+        <v>6.7503775202975396</v>
+      </c>
+      <c r="F12">
+        <v>9.0909090909090898E-2</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2">
+        <f>AVERAGE(C8:C12)</f>
+        <v>1.6884000000000003E-2</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" ref="D13:G13" si="1">AVERAGE(D8:D12)</f>
+        <v>4.104E-3</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="1"/>
+        <v>6.3849770818928517</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="1"/>
+        <v>0.10909090909090913</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="1"/>
+        <v>1.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1BC6655-E885-45D6-A947-A764AE464A1D}">
   <dimension ref="A1:I13"/>
   <sheetViews>
@@ -2037,7 +3640,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B6DC9B1-9737-40AA-ADE7-0FAD4E9A7915}">
   <dimension ref="A1:I13"/>
   <sheetViews>
@@ -2196,165 +3799,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC27B712-70FD-4C8F-8A04-C84C468A46F1}">
-  <dimension ref="A1:I13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="9" width="16.58203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10">
-        <v>3</v>
-      </c>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12">
-        <v>5</v>
-      </c>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Tables/Table5_T1EandPower_Meta.xlsx
+++ b/Tables/Table5_T1EandPower_Meta.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aarhus\Courses\Thesis\An-evaluation-of-software-for-performing-GWAS-mixed-model-association-analysis\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D827CA6-0E6D-410A-9640-C8B9709B223F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3EC8B3E-B8CA-4B4B-ABE1-BFB42CDD6ADE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="13" r:id="rId1"/>
@@ -835,7 +835,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="C8" sqref="C8:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -937,6 +937,21 @@
       <c r="B8">
         <v>1</v>
       </c>
+      <c r="C8">
+        <v>4.6199999999999998E-2</v>
+      </c>
+      <c r="D8">
+        <v>2.5399999999999999E-2</v>
+      </c>
+      <c r="E8">
+        <v>3.50022837860512</v>
+      </c>
+      <c r="F8">
+        <v>0.27272727272727298</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -945,6 +960,21 @@
       <c r="B9">
         <v>2</v>
       </c>
+      <c r="C9">
+        <v>5.3199999999999997E-2</v>
+      </c>
+      <c r="D9">
+        <v>2.4E-2</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>11</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -953,7 +983,21 @@
       <c r="B10">
         <v>3</v>
       </c>
-      <c r="D10" s="1"/>
+      <c r="C10">
+        <v>5.5199999999999999E-2</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2.76E-2</v>
+      </c>
+      <c r="E10">
+        <v>2.40016778914497</v>
+      </c>
+      <c r="F10">
+        <v>0.36363636363636398</v>
+      </c>
+      <c r="G10">
+        <v>4</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -962,6 +1006,21 @@
       <c r="B11">
         <v>4</v>
       </c>
+      <c r="C11">
+        <v>0.1</v>
+      </c>
+      <c r="D11">
+        <v>4.9799999999999997E-2</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0.90909090909090895</v>
+      </c>
+      <c r="G11">
+        <v>10</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -970,7 +1029,21 @@
       <c r="B12">
         <v>5</v>
       </c>
-      <c r="D12" s="1"/>
+      <c r="C12">
+        <v>5.16E-2</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2.6599999999999999E-2</v>
+      </c>
+      <c r="E12">
+        <v>4.9233752121096703</v>
+      </c>
+      <c r="F12">
+        <v>0.18181818181818199</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -996,7 +1069,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="C8" sqref="C8:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1098,6 +1171,21 @@
       <c r="B8">
         <v>1</v>
       </c>
+      <c r="C8" s="1">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>5.0004660918200897E-2</v>
+      </c>
+      <c r="F8">
+        <v>0.81818181818181801</v>
+      </c>
+      <c r="G8">
+        <v>9</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -1106,6 +1194,21 @@
       <c r="B9">
         <v>2</v>
       </c>
+      <c r="C9" s="1">
+        <v>8.0000000000000007E-5</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0.21054495937538101</v>
+      </c>
+      <c r="F9">
+        <v>0.72727272727272696</v>
+      </c>
+      <c r="G9">
+        <v>8</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -1114,7 +1217,21 @@
       <c r="B10">
         <v>3</v>
       </c>
-      <c r="D10" s="1"/>
+      <c r="C10" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>3.5002284084128901</v>
+      </c>
+      <c r="F10">
+        <v>0.27272727272727298</v>
+      </c>
+      <c r="G10">
+        <v>3</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -1123,6 +1240,21 @@
       <c r="B11">
         <v>4</v>
       </c>
+      <c r="C11">
+        <v>1.4400000000000001E-3</v>
+      </c>
+      <c r="D11">
+        <v>1.8000000000000001E-4</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1.0909090909090899</v>
+      </c>
+      <c r="G11">
+        <v>12</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -1131,7 +1263,21 @@
       <c r="B12">
         <v>5</v>
       </c>
-      <c r="D12" s="1"/>
+      <c r="C12">
+        <v>1.8000000000000001E-4</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>5.0004660918200897E-2</v>
+      </c>
+      <c r="F12">
+        <v>0.81818181818181801</v>
+      </c>
+      <c r="G12">
+        <v>9</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -1157,7 +1303,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C8" sqref="C8:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1259,6 +1405,21 @@
       <c r="B8">
         <v>1</v>
       </c>
+      <c r="C8" s="1">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0.500041947872777</v>
+      </c>
+      <c r="F8">
+        <v>0.63636363636363602</v>
+      </c>
+      <c r="G8">
+        <v>7</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -1267,6 +1428,21 @@
       <c r="B9">
         <v>2</v>
       </c>
+      <c r="C9">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="E9">
+        <v>2.40016778914497</v>
+      </c>
+      <c r="F9">
+        <v>0.36363636363636398</v>
+      </c>
+      <c r="G9">
+        <v>4</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -1275,7 +1451,21 @@
       <c r="B10">
         <v>3</v>
       </c>
-      <c r="D10" s="1"/>
+      <c r="C10">
+        <v>1.64E-3</v>
+      </c>
+      <c r="D10" s="1">
+        <v>5.5999999999999995E-4</v>
+      </c>
+      <c r="E10">
+        <v>1.5626165207826499</v>
+      </c>
+      <c r="F10">
+        <v>0.45454545454545497</v>
+      </c>
+      <c r="G10">
+        <v>5</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -1284,6 +1474,21 @@
       <c r="B11">
         <v>4</v>
       </c>
+      <c r="C11">
+        <v>3.6000000000000002E-4</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0.94125104423670403</v>
+      </c>
+      <c r="F11">
+        <v>0.54545454545454497</v>
+      </c>
+      <c r="G11">
+        <v>6</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -1292,7 +1497,21 @@
       <c r="B12">
         <v>5</v>
       </c>
-      <c r="D12" s="1"/>
+      <c r="C12">
+        <v>1.24E-3</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="E12">
+        <v>1.5626165207826499</v>
+      </c>
+      <c r="F12">
+        <v>0.45454545454545497</v>
+      </c>
+      <c r="G12">
+        <v>5</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -1317,8 +1536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F9CDDA7-47FE-4C2B-B7DB-128EECE88BE5}">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1420,6 +1639,21 @@
       <c r="B8">
         <v>1</v>
       </c>
+      <c r="C8">
+        <v>2.5600000000000002E-3</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="E8">
+        <v>3.50022837860512</v>
+      </c>
+      <c r="F8">
+        <v>0.27272727272727298</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -1428,6 +1662,21 @@
       <c r="B9">
         <v>2</v>
       </c>
+      <c r="C9">
+        <v>9.4400000000000005E-3</v>
+      </c>
+      <c r="D9">
+        <v>4.7800000000000004E-3</v>
+      </c>
+      <c r="E9">
+        <v>1.5626165207826499</v>
+      </c>
+      <c r="F9">
+        <v>0.45454545454545497</v>
+      </c>
+      <c r="G9">
+        <v>5</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -1436,7 +1685,21 @@
       <c r="B10">
         <v>3</v>
       </c>
-      <c r="D10" s="1"/>
+      <c r="C10">
+        <v>2.7000000000000001E-3</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="E10">
+        <v>6.7503775202975396</v>
+      </c>
+      <c r="F10">
+        <v>9.0909090909090898E-2</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -1445,6 +1708,21 @@
       <c r="B11">
         <v>4</v>
       </c>
+      <c r="C11">
+        <v>7.28E-3</v>
+      </c>
+      <c r="D11">
+        <v>1.7600000000000001E-3</v>
+      </c>
+      <c r="E11">
+        <v>4.9233752121096703</v>
+      </c>
+      <c r="F11">
+        <v>0.18181818181818199</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -1453,7 +1731,21 @@
       <c r="B12">
         <v>5</v>
       </c>
-      <c r="D12" s="1"/>
+      <c r="C12">
+        <v>4.1799999999999997E-3</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1.16E-3</v>
+      </c>
+      <c r="E12">
+        <v>3.50022837860512</v>
+      </c>
+      <c r="F12">
+        <v>0.27272727272727298</v>
+      </c>
+      <c r="G12">
+        <v>3</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -1478,8 +1770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1638,26 +1930,11 @@
       <c r="B7" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="2">
-        <f>AVERAGE(C2:C6)</f>
-        <v>1.056E-2</v>
-      </c>
-      <c r="D7" s="2">
-        <f t="shared" ref="D7:G7" si="0">AVERAGE(D2:D6)</f>
-        <v>1.8400000000000001E-3</v>
-      </c>
-      <c r="E7" s="2">
-        <f t="shared" si="0"/>
-        <v>0.79114320949320394</v>
-      </c>
-      <c r="F7" s="2">
-        <f t="shared" si="0"/>
-        <v>0.78181818181818274</v>
-      </c>
-      <c r="G7" s="2">
-        <f t="shared" si="0"/>
-        <v>8.6</v>
-      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -1781,26 +2058,11 @@
       <c r="B13" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="2">
-        <f>AVERAGE(C8:C12)</f>
-        <v>1.064E-2</v>
-      </c>
-      <c r="D13" s="2">
-        <f t="shared" ref="D13:G13" si="1">AVERAGE(D8:D12)</f>
-        <v>1.8400000000000001E-3</v>
-      </c>
-      <c r="E13" s="2">
-        <f t="shared" si="1"/>
-        <v>0.84929788567081843</v>
-      </c>
-      <c r="F13" s="2">
-        <f t="shared" si="1"/>
-        <v>0.7272727272727264</v>
-      </c>
-      <c r="G13" s="2">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1814,7 +2076,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:G7"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1973,26 +2235,11 @@
       <c r="B7" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="2">
-        <f>AVERAGE(C2:C6)</f>
-        <v>7.1839999999999987E-2</v>
-      </c>
-      <c r="D7" s="2">
-        <f t="shared" ref="D7:G7" si="0">AVERAGE(D2:D6)</f>
-        <v>3.7239999999999995E-2</v>
-      </c>
-      <c r="E7" s="2">
-        <f t="shared" si="0"/>
-        <v>1.1690572900062217</v>
-      </c>
-      <c r="F7" s="2">
-        <f t="shared" si="0"/>
-        <v>0.5636363636363636</v>
-      </c>
-      <c r="G7" s="2">
-        <f t="shared" si="0"/>
-        <v>6.2</v>
-      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -2116,26 +2363,11 @@
       <c r="B13" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="2">
-        <f>AVERAGE(C8:C12)</f>
-        <v>8.0960000000000004E-2</v>
-      </c>
-      <c r="D13" s="2">
-        <f t="shared" ref="D13:G13" si="1">AVERAGE(D8:D12)</f>
-        <v>4.3800000000000006E-2</v>
-      </c>
-      <c r="E13" s="2">
-        <f t="shared" si="1"/>
-        <v>1.5275575473008811</v>
-      </c>
-      <c r="F13" s="2">
-        <f t="shared" si="1"/>
-        <v>0.58181818181818179</v>
-      </c>
-      <c r="G13" s="2">
-        <f t="shared" si="1"/>
-        <v>6.4</v>
-      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2148,7 +2380,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:G13"/>
+      <selection activeCell="C2" sqref="C2:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2307,26 +2539,11 @@
       <c r="B7" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="2">
-        <f>AVERAGE(C2:C6)</f>
-        <v>0.10616</v>
-      </c>
-      <c r="D7" s="2">
-        <f t="shared" ref="D7:G7" si="0">AVERAGE(D2:D6)</f>
-        <v>6.4640000000000003E-2</v>
-      </c>
-      <c r="E7" s="2">
-        <f t="shared" si="0"/>
-        <v>2.6434058836383283</v>
-      </c>
-      <c r="F7" s="2">
-        <f t="shared" si="0"/>
-        <v>0.38181818181818195</v>
-      </c>
-      <c r="G7" s="2">
-        <f t="shared" si="0"/>
-        <v>4.2</v>
-      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -2450,26 +2667,11 @@
       <c r="B13" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="2">
-        <f>AVERAGE(C8:C12)</f>
-        <v>0.13195999999999999</v>
-      </c>
-      <c r="D13" s="2">
-        <f t="shared" ref="D13:G13" si="1">AVERAGE(D8:D12)</f>
-        <v>9.4079999999999997E-2</v>
-      </c>
-      <c r="E13" s="2">
-        <f t="shared" si="1"/>
-        <v>5.5149351124294519</v>
-      </c>
-      <c r="F13" s="2">
-        <f t="shared" si="1"/>
-        <v>0.16363636363636375</v>
-      </c>
-      <c r="G13" s="2">
-        <f t="shared" si="1"/>
-        <v>1.8</v>
-      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2482,7 +2684,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:G13"/>
+      <selection activeCell="C2" sqref="C2:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2641,26 +2843,11 @@
       <c r="B7" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="2">
-        <f>AVERAGE(C2:C6)</f>
-        <v>1.36E-4</v>
-      </c>
-      <c r="D7" s="2">
-        <f t="shared" ref="D7:G7" si="0">AVERAGE(D2:D6)</f>
-        <v>0</v>
-      </c>
-      <c r="E7" s="2">
-        <f t="shared" si="0"/>
-        <v>6.2110856529203694E-2</v>
-      </c>
-      <c r="F7" s="2">
-        <f t="shared" si="0"/>
-        <v>0.90909090909090851</v>
-      </c>
-      <c r="G7" s="2">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -2784,26 +2971,11 @@
       <c r="B13" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="2">
-        <f>AVERAGE(C8:C12)</f>
-        <v>1.16E-4</v>
-      </c>
-      <c r="D13" s="2">
-        <f t="shared" ref="D13:G13" si="1">AVERAGE(D8:D12)</f>
-        <v>0</v>
-      </c>
-      <c r="E13" s="2">
-        <f t="shared" si="1"/>
-        <v>0.20001677914911081</v>
-      </c>
-      <c r="F13" s="2">
-        <f t="shared" si="1"/>
-        <v>0.8363636363636362</v>
-      </c>
-      <c r="G13" s="2">
-        <f t="shared" si="1"/>
-        <v>9.1999999999999993</v>
-      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2816,7 +2988,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:G13"/>
+      <selection activeCell="C2" sqref="C2:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2975,26 +3147,11 @@
       <c r="B7" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="2">
-        <f>AVERAGE(C2:C6)</f>
-        <v>3.5040000000000002E-3</v>
-      </c>
-      <c r="D7" s="2">
-        <f t="shared" ref="D7:G7" si="0">AVERAGE(D2:D6)</f>
-        <v>3.7599999999999998E-4</v>
-      </c>
-      <c r="E7" s="2">
-        <f t="shared" si="0"/>
-        <v>4.8649052981456915</v>
-      </c>
-      <c r="F7" s="2">
-        <f t="shared" si="0"/>
-        <v>0.20000000000000012</v>
-      </c>
-      <c r="G7" s="2">
-        <f t="shared" si="0"/>
-        <v>2.2000000000000002</v>
-      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -3118,26 +3275,11 @@
       <c r="B13" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="2">
-        <f>AVERAGE(C8:C12)</f>
-        <v>4.1159999999999999E-3</v>
-      </c>
-      <c r="D13" s="2">
-        <f t="shared" ref="D13:G13" si="1">AVERAGE(D8:D12)</f>
-        <v>5.4800000000000009E-4</v>
-      </c>
-      <c r="E13" s="2">
-        <f t="shared" si="1"/>
-        <v>5.4503178636205716</v>
-      </c>
-      <c r="F13" s="2">
-        <f t="shared" si="1"/>
-        <v>0.16363636363636375</v>
-      </c>
-      <c r="G13" s="2">
-        <f t="shared" si="1"/>
-        <v>1.8</v>
-      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3150,7 +3292,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C2" sqref="C2:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3309,26 +3451,11 @@
       <c r="B7" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="2">
-        <f>AVERAGE(C2:C6)</f>
-        <v>9.8400000000000015E-3</v>
-      </c>
-      <c r="D7" s="2">
-        <f t="shared" ref="D7:G7" si="0">AVERAGE(D2:D6)</f>
-        <v>1.9119999999999999E-3</v>
-      </c>
-      <c r="E7" s="2">
-        <f t="shared" si="0"/>
-        <v>5.3491647349246056</v>
-      </c>
-      <c r="F7" s="2">
-        <f t="shared" si="0"/>
-        <v>0.20000000000000018</v>
-      </c>
-      <c r="G7" s="2">
-        <f t="shared" si="0"/>
-        <v>2.2000000000000002</v>
-      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -3452,26 +3579,11 @@
       <c r="B13" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="2">
-        <f>AVERAGE(C8:C12)</f>
-        <v>1.6884000000000003E-2</v>
-      </c>
-      <c r="D13" s="2">
-        <f t="shared" ref="D13:G13" si="1">AVERAGE(D8:D12)</f>
-        <v>4.104E-3</v>
-      </c>
-      <c r="E13" s="2">
-        <f t="shared" si="1"/>
-        <v>6.3849770818928517</v>
-      </c>
-      <c r="F13" s="2">
-        <f t="shared" si="1"/>
-        <v>0.10909090909090913</v>
-      </c>
-      <c r="G13" s="2">
-        <f t="shared" si="1"/>
-        <v>1.2</v>
-      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3484,7 +3596,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3645,7 +3757,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="C8" sqref="C8:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3747,6 +3859,21 @@
       <c r="B8">
         <v>1</v>
       </c>
+      <c r="C8">
+        <v>2.7400000000000001E-2</v>
+      </c>
+      <c r="D8">
+        <v>0.01</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>11</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -3755,6 +3882,21 @@
       <c r="B9">
         <v>2</v>
       </c>
+      <c r="C9">
+        <v>2.8799999999999999E-2</v>
+      </c>
+      <c r="D9">
+        <v>9.4000000000000004E-3</v>
+      </c>
+      <c r="E9">
+        <v>0.500041947872777</v>
+      </c>
+      <c r="F9">
+        <v>0.63636363636363602</v>
+      </c>
+      <c r="G9">
+        <v>7</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -3763,7 +3905,21 @@
       <c r="B10">
         <v>3</v>
       </c>
-      <c r="D10" s="1"/>
+      <c r="C10">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="D10" s="1">
+        <v>7.1999999999999998E-3</v>
+      </c>
+      <c r="E10">
+        <v>0.21054495937538101</v>
+      </c>
+      <c r="F10">
+        <v>0.72727272727272696</v>
+      </c>
+      <c r="G10">
+        <v>8</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -3772,6 +3928,21 @@
       <c r="B11">
         <v>4</v>
       </c>
+      <c r="C11">
+        <v>5.1400000000000001E-2</v>
+      </c>
+      <c r="D11">
+        <v>1.6E-2</v>
+      </c>
+      <c r="E11">
+        <v>0.94125104423670403</v>
+      </c>
+      <c r="F11">
+        <v>0.54545454545454497</v>
+      </c>
+      <c r="G11">
+        <v>6</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -3780,7 +3951,21 @@
       <c r="B12">
         <v>5</v>
       </c>
-      <c r="D12" s="1"/>
+      <c r="C12">
+        <v>3.32E-2</v>
+      </c>
+      <c r="D12" s="1">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="E12">
+        <v>0.500041947872777</v>
+      </c>
+      <c r="F12">
+        <v>0.63636363636363602</v>
+      </c>
+      <c r="G12">
+        <v>7</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">

--- a/Tables/Table5_T1EandPower_Meta.xlsx
+++ b/Tables/Table5_T1EandPower_Meta.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aarhus\Courses\Thesis\An-evaluation-of-software-for-performing-GWAS-mixed-model-association-analysis\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3EC8B3E-B8CA-4B4B-ABE1-BFB42CDD6ADE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFD97D70-2D35-4759-838D-D5E40ED8D654}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -835,7 +835,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:G12"/>
+      <selection activeCell="C13" sqref="C13:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -879,6 +879,21 @@
       <c r="B2">
         <v>1</v>
       </c>
+      <c r="C2">
+        <v>4.58E-2</v>
+      </c>
+      <c r="D2">
+        <v>2.3599999999999999E-2</v>
+      </c>
+      <c r="E2">
+        <v>0.500042104475238</v>
+      </c>
+      <c r="F2">
+        <v>0.63636363636363602</v>
+      </c>
+      <c r="G2">
+        <v>7</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -887,7 +902,21 @@
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3" s="1"/>
+      <c r="C3" s="1">
+        <v>4.58E-2</v>
+      </c>
+      <c r="D3">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="E3">
+        <v>5.0004830731179499E-2</v>
+      </c>
+      <c r="F3">
+        <v>0.81818181818181801</v>
+      </c>
+      <c r="G3">
+        <v>9</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -896,7 +925,21 @@
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4" s="1"/>
+      <c r="C4" s="1">
+        <v>4.6800000000000001E-2</v>
+      </c>
+      <c r="D4">
+        <v>2.18E-2</v>
+      </c>
+      <c r="E4">
+        <v>0.21054495937538101</v>
+      </c>
+      <c r="F4">
+        <v>0.72727272727272696</v>
+      </c>
+      <c r="G4">
+        <v>8</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -905,7 +948,21 @@
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="D5" s="1"/>
+      <c r="C5">
+        <v>9.0399999999999994E-2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>4.6600000000000003E-2</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>11</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -914,8 +971,21 @@
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+      <c r="C6" s="1">
+        <v>4.6399999999999997E-2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2.3400000000000001E-2</v>
+      </c>
+      <c r="E6">
+        <v>6.7503782572149102</v>
+      </c>
+      <c r="F6">
+        <v>9.0909090909090898E-2</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -924,11 +994,26 @@
       <c r="B7" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
+      <c r="C7" s="2">
+        <f>AVERAGE(C2:C6)</f>
+        <v>5.5039999999999999E-2</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" ref="D7:G7" si="0">AVERAGE(D2:D6)</f>
+        <v>2.6679999999999999E-2</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="0"/>
+        <v>1.5021940303593417</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.65454545454545443</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="0"/>
+        <v>7.2</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -1052,11 +1137,26 @@
       <c r="B13" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
+      <c r="C13" s="2">
+        <f>AVERAGE(C8:C12)</f>
+        <v>6.1239999999999996E-2</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" ref="D13:G13" si="1">AVERAGE(D8:D12)</f>
+        <v>3.0679999999999995E-2</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="1"/>
+        <v>2.1647542759719522</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="1"/>
+        <v>0.54545454545454564</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1069,7 +1169,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:G13"/>
+      <selection activeCell="C13" sqref="C13:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1113,6 +1213,21 @@
       <c r="B2">
         <v>1</v>
       </c>
+      <c r="C2" s="1">
+        <v>6.0000000000000002E-5</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>1.0909090909090899</v>
+      </c>
+      <c r="G2">
+        <v>12</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -1121,7 +1236,21 @@
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3" s="1"/>
+      <c r="C3" s="1">
+        <v>8.0000000000000007E-5</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0.21054495937538101</v>
+      </c>
+      <c r="F3">
+        <v>0.72727272727272696</v>
+      </c>
+      <c r="G3">
+        <v>8</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -1130,7 +1259,21 @@
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4" s="1"/>
+      <c r="C4" s="1">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>1.5626165207826499</v>
+      </c>
+      <c r="F4">
+        <v>0.45454545454545497</v>
+      </c>
+      <c r="G4">
+        <v>5</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -1139,7 +1282,21 @@
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="D5" s="1"/>
+      <c r="C5" s="1">
+        <v>8.0000000000000007E-5</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>4.1671429070347099E-2</v>
+      </c>
+      <c r="F5">
+        <v>1.1818181818181801</v>
+      </c>
+      <c r="G5">
+        <v>13</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -1148,8 +1305,21 @@
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+      <c r="C6" s="1">
+        <v>1.8000000000000001E-4</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0.50004264836893697</v>
+      </c>
+      <c r="F6">
+        <v>0.63636363636363602</v>
+      </c>
+      <c r="G6">
+        <v>7</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -1158,11 +1328,26 @@
       <c r="B7" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
+      <c r="C7" s="2">
+        <f>AVERAGE(C2:C6)</f>
+        <v>8.4000000000000009E-5</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" ref="D7:G7" si="0">AVERAGE(D2:D6)</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.46297511151946297</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.81818181818181768</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -1286,11 +1471,26 @@
       <c r="B13" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
+      <c r="C13" s="2">
+        <f>AVERAGE(C8:C12)</f>
+        <v>3.6400000000000007E-4</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" ref="D13:G13" si="1">AVERAGE(D8:D12)</f>
+        <v>3.6000000000000001E-5</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="1"/>
+        <v>0.76215653792493465</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="1"/>
+        <v>0.74545454545454515</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="1"/>
+        <v>8.1999999999999993</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1303,7 +1503,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:G12"/>
+      <selection activeCell="C13" sqref="C13:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1347,6 +1547,21 @@
       <c r="B2">
         <v>1</v>
       </c>
+      <c r="C2" s="1">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0.50004303831366304</v>
+      </c>
+      <c r="F2">
+        <v>0.63636363636363602</v>
+      </c>
+      <c r="G2">
+        <v>7</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -1355,7 +1570,21 @@
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3" s="1"/>
+      <c r="C3" s="1">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>2.40016778914497</v>
+      </c>
+      <c r="F3">
+        <v>0.36363636363636398</v>
+      </c>
+      <c r="G3">
+        <v>4</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -1364,7 +1593,21 @@
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4" s="1"/>
+      <c r="C4" s="1">
+        <v>7.3999999999999999E-4</v>
+      </c>
+      <c r="D4">
+        <v>1.3999999999999999E-4</v>
+      </c>
+      <c r="E4">
+        <v>4.9233752121096703</v>
+      </c>
+      <c r="F4">
+        <v>0.18181818181818199</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -1373,7 +1616,21 @@
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="D5" s="1"/>
+      <c r="C5" s="1">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>1.5626202258321999</v>
+      </c>
+      <c r="F5">
+        <v>0.45454545454545497</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -1382,8 +1639,21 @@
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+      <c r="C6" s="1">
+        <v>5.1999999999999995E-4</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="E6">
+        <v>2.40016778914497</v>
+      </c>
+      <c r="F6">
+        <v>0.36363636363636398</v>
+      </c>
+      <c r="G6">
+        <v>4</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -1392,11 +1662,26 @@
       <c r="B7" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
+      <c r="C7" s="2">
+        <f>AVERAGE(C2:C6)</f>
+        <v>5.5199999999999997E-4</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" ref="D7:G7" si="0">AVERAGE(D2:D6)</f>
+        <v>3.1999999999999999E-5</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="0"/>
+        <v>2.3572748109090944</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.40000000000000019</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="0"/>
+        <v>4.4000000000000004</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -1406,10 +1691,10 @@
         <v>1</v>
       </c>
       <c r="C8" s="1">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
+        <v>4.6000000000000001E-4</v>
+      </c>
+      <c r="D8" s="1">
+        <v>4.0000000000000003E-5</v>
       </c>
       <c r="E8">
         <v>0.500041947872777</v>
@@ -1429,10 +1714,10 @@
         <v>2</v>
       </c>
       <c r="C9">
-        <v>1.2999999999999999E-3</v>
+        <v>1.72E-3</v>
       </c>
       <c r="D9" s="1">
-        <v>2.0000000000000002E-5</v>
+        <v>6.0000000000000002E-5</v>
       </c>
       <c r="E9">
         <v>2.40016778914497</v>
@@ -1452,10 +1737,10 @@
         <v>3</v>
       </c>
       <c r="C10">
-        <v>1.64E-3</v>
+        <v>1.7600000000000001E-3</v>
       </c>
       <c r="D10" s="1">
-        <v>5.5999999999999995E-4</v>
+        <v>5.8E-4</v>
       </c>
       <c r="E10">
         <v>1.5626165207826499</v>
@@ -1475,7 +1760,7 @@
         <v>4</v>
       </c>
       <c r="C11">
-        <v>3.6000000000000002E-4</v>
+        <v>6.2E-4</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1498,10 +1783,10 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>1.24E-3</v>
+        <v>1.4400000000000001E-3</v>
       </c>
       <c r="D12" s="1">
-        <v>1E-4</v>
+        <v>8.0000000000000007E-5</v>
       </c>
       <c r="E12">
         <v>1.5626165207826499</v>
@@ -1520,11 +1805,26 @@
       <c r="B13" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
+      <c r="C13" s="2">
+        <f>AVERAGE(C8:C12)</f>
+        <v>1.2000000000000001E-3</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" ref="D13:G13" si="1">AVERAGE(D8:D12)</f>
+        <v>1.5200000000000001E-4</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="1"/>
+        <v>1.3933387645639503</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="1"/>
+        <v>0.49090909090909102</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="1"/>
+        <v>5.4</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1537,7 +1837,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="C13" sqref="C13:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1581,6 +1881,21 @@
       <c r="B2">
         <v>1</v>
       </c>
+      <c r="C2">
+        <v>1.8600000000000001E-3</v>
+      </c>
+      <c r="D2" s="1">
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="E2">
+        <v>1.5626165566371999</v>
+      </c>
+      <c r="F2">
+        <v>0.45454545454545497</v>
+      </c>
+      <c r="G2">
+        <v>5</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -1589,7 +1904,21 @@
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3" s="1"/>
+      <c r="C3" s="1">
+        <v>1.3799999999999999E-3</v>
+      </c>
+      <c r="D3" s="1">
+        <v>6.0000000000000002E-5</v>
+      </c>
+      <c r="E3">
+        <v>1.5626165207826499</v>
+      </c>
+      <c r="F3">
+        <v>0.45454545454545497</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -1598,7 +1927,21 @@
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4" s="1"/>
+      <c r="C4" s="1">
+        <v>1.58E-3</v>
+      </c>
+      <c r="D4" s="1">
+        <v>8.0000000000000007E-5</v>
+      </c>
+      <c r="E4">
+        <v>4.9233752121096703</v>
+      </c>
+      <c r="F4">
+        <v>0.18181818181818199</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -1607,7 +1950,21 @@
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="D5" s="1"/>
+      <c r="C5">
+        <v>3.7200000000000002E-3</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1.6000000000000001E-4</v>
+      </c>
+      <c r="E5">
+        <v>3.50022837860512</v>
+      </c>
+      <c r="F5">
+        <v>0.27272727272727298</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -1616,8 +1973,21 @@
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+      <c r="C6" s="1">
+        <v>2.82E-3</v>
+      </c>
+      <c r="D6" s="1">
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="E6">
+        <v>6.7503775202975396</v>
+      </c>
+      <c r="F6">
+        <v>9.0909090909090898E-2</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -1626,11 +1996,26 @@
       <c r="B7" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
+      <c r="C7" s="2">
+        <f>AVERAGE(C2:C6)</f>
+        <v>2.2719999999999997E-3</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" ref="D7:G7" si="0">AVERAGE(D2:D6)</f>
+        <v>7.6000000000000004E-5</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="0"/>
+        <v>3.659842837686436</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.29090909090909112</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="0"/>
+        <v>3.2</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -1754,11 +2139,26 @@
       <c r="B13" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
+      <c r="C13" s="2">
+        <f>AVERAGE(C8:C12)</f>
+        <v>5.2319999999999997E-3</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" ref="D13:G13" si="1">AVERAGE(D8:D12)</f>
+        <v>1.6400000000000002E-3</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="1"/>
+        <v>4.0473652020800195</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="1"/>
+        <v>0.25454545454545474</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="1"/>
+        <v>2.8</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1771,7 +2171,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C13"/>
+      <selection activeCell="C13" sqref="C13:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1930,11 +2330,26 @@
       <c r="B7" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
+      <c r="C7" s="2">
+        <f>AVERAGE(C2:C6)</f>
+        <v>1.056E-2</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" ref="D7:G7" si="0">AVERAGE(D2:D6)</f>
+        <v>1.8400000000000001E-3</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.79114320949320394</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.78181818181818274</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="0"/>
+        <v>8.6</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -2058,11 +2473,26 @@
       <c r="B13" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
+      <c r="C13" s="2">
+        <f>AVERAGE(C8:C12)</f>
+        <v>1.064E-2</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" ref="D13" si="1">AVERAGE(D8:D12)</f>
+        <v>1.8400000000000001E-3</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" ref="E13" si="2">AVERAGE(E8:E12)</f>
+        <v>0.84929788567081843</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" ref="F13" si="3">AVERAGE(F8:F12)</f>
+        <v>0.7272727272727264</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" ref="G13" si="4">AVERAGE(G8:G12)</f>
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2076,7 +2506,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C13" sqref="C13:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2235,11 +2665,26 @@
       <c r="B7" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
+      <c r="C7" s="2">
+        <f>AVERAGE(C2:C6)</f>
+        <v>7.1839999999999987E-2</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" ref="D7:G7" si="0">AVERAGE(D2:D6)</f>
+        <v>3.7239999999999995E-2</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="0"/>
+        <v>1.1690572900062217</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.5636363636363636</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="0"/>
+        <v>6.2</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -2363,11 +2808,26 @@
       <c r="B13" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
+      <c r="C13" s="2">
+        <f>AVERAGE(C8:C12)</f>
+        <v>8.0960000000000004E-2</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" ref="D13:G13" si="1">AVERAGE(D8:D12)</f>
+        <v>4.3800000000000006E-2</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="1"/>
+        <v>1.5275575473008811</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="1"/>
+        <v>0.58181818181818179</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="1"/>
+        <v>6.4</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2380,7 +2840,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:G13"/>
+      <selection activeCell="C13" sqref="C13:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2539,11 +2999,26 @@
       <c r="B7" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
+      <c r="C7" s="2">
+        <f>AVERAGE(C2:C6)</f>
+        <v>0.10616</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" ref="D7:G7" si="0">AVERAGE(D2:D6)</f>
+        <v>6.4640000000000003E-2</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="0"/>
+        <v>2.6434058836383283</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.38181818181818195</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="0"/>
+        <v>4.2</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -2667,11 +3142,26 @@
       <c r="B13" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
+      <c r="C13" s="2">
+        <f>AVERAGE(C8:C12)</f>
+        <v>0.13195999999999999</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" ref="D13:G13" si="1">AVERAGE(D8:D12)</f>
+        <v>9.4079999999999997E-2</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="1"/>
+        <v>5.5149351124294519</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="1"/>
+        <v>0.16363636363636375</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="1"/>
+        <v>1.8</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2684,7 +3174,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:G13"/>
+      <selection activeCell="C13" sqref="C13:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2843,11 +3333,26 @@
       <c r="B7" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
+      <c r="C7" s="2">
+        <f>AVERAGE(C2:C6)</f>
+        <v>1.36E-4</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" ref="D7:G7" si="0">AVERAGE(D2:D6)</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="0"/>
+        <v>6.2110856529203694E-2</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.90909090909090851</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -2971,11 +3476,26 @@
       <c r="B13" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
+      <c r="C13" s="2">
+        <f>AVERAGE(C8:C12)</f>
+        <v>1.16E-4</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" ref="D13:G13" si="1">AVERAGE(D8:D12)</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="1"/>
+        <v>0.20001677914911081</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="1"/>
+        <v>0.8363636363636362</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="1"/>
+        <v>9.1999999999999993</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2988,7 +3508,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:G13"/>
+      <selection activeCell="C13" sqref="C13:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3147,11 +3667,26 @@
       <c r="B7" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
+      <c r="C7" s="2">
+        <f>AVERAGE(C2:C6)</f>
+        <v>3.5040000000000002E-3</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" ref="D7:G7" si="0">AVERAGE(D2:D6)</f>
+        <v>3.7599999999999998E-4</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="0"/>
+        <v>4.8649052981456915</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.20000000000000012</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="0"/>
+        <v>2.2000000000000002</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -3275,11 +3810,26 @@
       <c r="B13" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
+      <c r="C13" s="2">
+        <f>AVERAGE(C8:C12)</f>
+        <v>4.1159999999999999E-3</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" ref="D13:G13" si="1">AVERAGE(D8:D12)</f>
+        <v>5.4800000000000009E-4</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="1"/>
+        <v>5.4503178636205716</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="1"/>
+        <v>0.16363636363636375</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="1"/>
+        <v>1.8</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3292,7 +3842,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:G13"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3451,11 +4001,26 @@
       <c r="B7" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
+      <c r="C7" s="2">
+        <f>AVERAGE(C2:C6)</f>
+        <v>9.8400000000000015E-3</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" ref="D7:G7" si="0">AVERAGE(D2:D6)</f>
+        <v>1.9119999999999999E-3</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="0"/>
+        <v>5.3491647349246056</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.20000000000000018</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="0"/>
+        <v>2.2000000000000002</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -3579,11 +4144,26 @@
       <c r="B13" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
+      <c r="C13" s="2">
+        <f>AVERAGE(C8:C12)</f>
+        <v>1.6884000000000003E-2</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" ref="D13:G13" si="1">AVERAGE(D8:D12)</f>
+        <v>4.104E-3</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="1"/>
+        <v>6.3849770818928517</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="1"/>
+        <v>0.10909090909090913</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="1"/>
+        <v>1.2</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3596,7 +4176,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C13" sqref="C13:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3640,6 +4220,21 @@
       <c r="B2">
         <v>1</v>
       </c>
+      <c r="C2">
+        <v>1.8E-3</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>1.0909090909090899</v>
+      </c>
+      <c r="G2">
+        <v>12</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -3648,7 +4243,21 @@
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3" s="1"/>
+      <c r="C3" s="1">
+        <v>2.3999999999999998E-3</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1.0909090909090899</v>
+      </c>
+      <c r="G3">
+        <v>12</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -3657,7 +4266,21 @@
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4" s="1"/>
+      <c r="C4" s="1">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>11</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -3666,7 +4289,21 @@
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="D5" s="1"/>
+      <c r="C5">
+        <v>2.3999999999999998E-3</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>11</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -3675,8 +4312,21 @@
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+      <c r="C6" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0.89297367015715901</v>
+      </c>
+      <c r="F6">
+        <v>1.5454545454545501</v>
+      </c>
+      <c r="G6">
+        <v>17</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -3685,11 +4335,26 @@
       <c r="B7" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
+      <c r="C7" s="2">
+        <f>AVERAGE(C2:C6)</f>
+        <v>1.5599999999999998E-3</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" ref="D7:G7" si="0">AVERAGE(D2:D6)</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.17859473403143181</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="0"/>
+        <v>1.1454545454545459</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="0"/>
+        <v>12.6</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -3698,6 +4363,21 @@
       <c r="B8">
         <v>1</v>
       </c>
+      <c r="C8">
+        <v>2E-3</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="E8">
+        <v>0.21054496511227</v>
+      </c>
+      <c r="F8">
+        <v>0.72727272727272696</v>
+      </c>
+      <c r="G8">
+        <v>8</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -3706,6 +4386,21 @@
       <c r="B9">
         <v>2</v>
       </c>
+      <c r="C9">
+        <v>2.5999999999999999E-3</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0.21054495937538101</v>
+      </c>
+      <c r="F9">
+        <v>0.72727272727272696</v>
+      </c>
+      <c r="G9">
+        <v>8</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -3714,7 +4409,21 @@
       <c r="B10">
         <v>3</v>
       </c>
-      <c r="D10" s="1"/>
+      <c r="C10">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0.21054496511227</v>
+      </c>
+      <c r="F10">
+        <v>0.72727272727272696</v>
+      </c>
+      <c r="G10">
+        <v>8</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -3723,6 +4432,21 @@
       <c r="B11">
         <v>4</v>
       </c>
+      <c r="C11">
+        <v>4.7999999999999996E-3</v>
+      </c>
+      <c r="D11" s="1">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="E11">
+        <v>1.5626173863230799</v>
+      </c>
+      <c r="F11">
+        <v>0.45454545454545497</v>
+      </c>
+      <c r="G11">
+        <v>5</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -3731,7 +4455,21 @@
       <c r="B12">
         <v>5</v>
       </c>
-      <c r="D12" s="1"/>
+      <c r="C12">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="E12">
+        <v>1.6335618376096299</v>
+      </c>
+      <c r="F12">
+        <v>1.72727272727273</v>
+      </c>
+      <c r="G12">
+        <v>19</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -3740,11 +4478,26 @@
       <c r="B13" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
+      <c r="C13" s="2">
+        <f>AVERAGE(C8:C12)</f>
+        <v>2.3599999999999997E-3</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" ref="D13:G13" si="1">AVERAGE(D8:D12)</f>
+        <v>1.6000000000000001E-4</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="1"/>
+        <v>0.7655628227065262</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="1"/>
+        <v>0.87272727272727324</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="1"/>
+        <v>9.6</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3757,7 +4510,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:G13"/>
+      <selection activeCell="C13" sqref="C13:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3801,6 +4554,21 @@
       <c r="B2">
         <v>1</v>
       </c>
+      <c r="C2">
+        <v>2.6200000000000001E-2</v>
+      </c>
+      <c r="D2">
+        <v>9.7999999999999997E-3</v>
+      </c>
+      <c r="E2">
+        <v>0.34619580849963499</v>
+      </c>
+      <c r="F2">
+        <v>1.36363636363636</v>
+      </c>
+      <c r="G2">
+        <v>15</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -3809,7 +4577,21 @@
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3" s="1"/>
+      <c r="C3" s="1">
+        <v>2.3599999999999999E-2</v>
+      </c>
+      <c r="D3">
+        <v>7.7999999999999996E-3</v>
+      </c>
+      <c r="E3">
+        <v>0.94125104423670403</v>
+      </c>
+      <c r="F3">
+        <v>0.54545454545454497</v>
+      </c>
+      <c r="G3">
+        <v>6</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -3818,7 +4600,21 @@
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4" s="1"/>
+      <c r="C4" s="1">
+        <v>2.4799999999999999E-2</v>
+      </c>
+      <c r="D4">
+        <v>6.6E-3</v>
+      </c>
+      <c r="E4">
+        <v>0.21054495937538101</v>
+      </c>
+      <c r="F4">
+        <v>0.72727272727272696</v>
+      </c>
+      <c r="G4">
+        <v>8</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -3827,7 +4623,21 @@
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="D5" s="1"/>
+      <c r="C5">
+        <v>4.8599999999999997E-2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1.38E-2</v>
+      </c>
+      <c r="E5">
+        <v>0.21054495937538101</v>
+      </c>
+      <c r="F5">
+        <v>0.72727272727272696</v>
+      </c>
+      <c r="G5">
+        <v>8</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -3836,8 +4646,21 @@
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+      <c r="C6" s="1">
+        <v>2.6800000000000001E-2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>6.4000000000000003E-3</v>
+      </c>
+      <c r="E6">
+        <v>0.210545016204155</v>
+      </c>
+      <c r="F6">
+        <v>0.72727272727272696</v>
+      </c>
+      <c r="G6">
+        <v>8</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -3846,11 +4669,26 @@
       <c r="B7" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
+      <c r="C7" s="2">
+        <f>AVERAGE(C2:C6)</f>
+        <v>0.03</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" ref="D7:G7" si="0">AVERAGE(D2:D6)</f>
+        <v>8.8800000000000007E-3</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.38381635753825122</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.81818181818181712</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -3974,11 +4812,26 @@
       <c r="B13" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
+      <c r="C13" s="2">
+        <f>AVERAGE(C8:C12)</f>
+        <v>3.3360000000000001E-2</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" ref="D13:G13" si="1">AVERAGE(D8:D12)</f>
+        <v>1.0319999999999999E-2</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="1"/>
+        <v>0.43037597987152781</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="1"/>
+        <v>0.70909090909090877</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="1"/>
+        <v>7.8</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Tables/Table5_T1EandPower_Meta.xlsx
+++ b/Tables/Table5_T1EandPower_Meta.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aarhus\Courses\Thesis\An-evaluation-of-software-for-performing-GWAS-mixed-model-association-analysis\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A9C62A7-F384-4FEC-94E3-47290FAC8378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23794BF5-1A6A-4F6E-9D05-6D409F972CE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="10980" windowHeight="13770" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="13" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="36">
   <si>
     <t>META_LDAK</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -189,6 +189,10 @@
     <t>Bolt_White</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Bolt-lmm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -249,12 +253,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2208,10 +2213,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I73"/>
+  <dimension ref="A1:I79"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C73" sqref="C73:G73"/>
+    <sheetView topLeftCell="A60" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3747,7 +3752,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>33</v>
       </c>
@@ -3770,7 +3775,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>33</v>
       </c>
@@ -3793,7 +3798,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>33</v>
       </c>
@@ -3821,7 +3826,7 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>34</v>
       </c>
@@ -3844,7 +3849,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>34</v>
       </c>
@@ -3867,7 +3872,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>34</v>
       </c>
@@ -3890,7 +3895,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>34</v>
       </c>
@@ -3913,7 +3918,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>34</v>
       </c>
@@ -3936,7 +3941,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>34</v>
       </c>
@@ -3963,6 +3968,150 @@
         <f t="shared" si="14"/>
         <v>9.4</v>
       </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>35</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="C74">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="D74">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>1.0909090909090899</v>
+      </c>
+      <c r="G74">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>35</v>
+      </c>
+      <c r="B75">
+        <v>2</v>
+      </c>
+      <c r="C75">
+        <v>0.159</v>
+      </c>
+      <c r="D75" s="1">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>1.0909090909090899</v>
+      </c>
+      <c r="G75">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>35</v>
+      </c>
+      <c r="B76">
+        <v>3</v>
+      </c>
+      <c r="C76">
+        <v>0.128</v>
+      </c>
+      <c r="D76" s="1">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0.90909090909090895</v>
+      </c>
+      <c r="G76">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>35</v>
+      </c>
+      <c r="B77">
+        <v>4</v>
+      </c>
+      <c r="C77">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="D77">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>1</v>
+      </c>
+      <c r="G77">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>35</v>
+      </c>
+      <c r="B78">
+        <v>5</v>
+      </c>
+      <c r="C78">
+        <v>0.152</v>
+      </c>
+      <c r="D78" s="1">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="E78">
+        <v>0.34619577018749698</v>
+      </c>
+      <c r="F78">
+        <v>1.36363636363636</v>
+      </c>
+      <c r="G78">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>35</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1</v>
+      </c>
+      <c r="C79" s="2">
+        <f>AVERAGE(C74:C78)</f>
+        <v>0.14800000000000002</v>
+      </c>
+      <c r="D79" s="2">
+        <f>AVERAGE(D74:D78)</f>
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="E79" s="2">
+        <f>AVERAGE(E74:E78)</f>
+        <v>6.923915403749939E-2</v>
+      </c>
+      <c r="F79" s="2">
+        <f>AVERAGE(F74:F78)</f>
+        <v>1.0909090909090897</v>
+      </c>
+      <c r="G79" s="2">
+        <f>AVERAGE(G74:G78)</f>
+        <v>12</v>
+      </c>
+      <c r="H79" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3973,10 +4122,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAAA71DA-956C-4EF7-AD44-7F87EDB341E8}">
-  <dimension ref="A1:I73"/>
+  <dimension ref="A1:I79"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C73" sqref="C73:G73"/>
+    <sheetView topLeftCell="A48" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -5512,7 +5661,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>33</v>
       </c>
@@ -5535,7 +5684,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>33</v>
       </c>
@@ -5558,7 +5707,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>33</v>
       </c>
@@ -5586,7 +5735,7 @@
         <v>12.6</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>34</v>
       </c>
@@ -5609,7 +5758,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>34</v>
       </c>
@@ -5632,7 +5781,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>34</v>
       </c>
@@ -5655,7 +5804,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>34</v>
       </c>
@@ -5678,7 +5827,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>34</v>
       </c>
@@ -5701,7 +5850,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>34</v>
       </c>
@@ -5728,6 +5877,150 @@
         <f t="shared" si="11"/>
         <v>10.6</v>
       </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>35</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="C74">
+        <v>0.57399999999999995</v>
+      </c>
+      <c r="D74">
+        <v>0.46300000000000002</v>
+      </c>
+      <c r="E74">
+        <v>0.21054494808576399</v>
+      </c>
+      <c r="F74">
+        <v>0.72727272727272696</v>
+      </c>
+      <c r="G74">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>35</v>
+      </c>
+      <c r="B75">
+        <v>2</v>
+      </c>
+      <c r="C75">
+        <v>0.54300000000000004</v>
+      </c>
+      <c r="D75" s="1">
+        <v>0.42599999999999999</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
+      <c r="G75">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>35</v>
+      </c>
+      <c r="B76">
+        <v>3</v>
+      </c>
+      <c r="C76">
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="D76" s="1">
+        <v>0.45200000000000001</v>
+      </c>
+      <c r="E76">
+        <v>4.1671324849230203E-2</v>
+      </c>
+      <c r="F76">
+        <v>1.1818181818181801</v>
+      </c>
+      <c r="G76">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>35</v>
+      </c>
+      <c r="B77">
+        <v>4</v>
+      </c>
+      <c r="C77">
+        <v>0.57799999999999996</v>
+      </c>
+      <c r="D77">
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="E77">
+        <v>0.50004192247137602</v>
+      </c>
+      <c r="F77">
+        <v>0.63636363636363602</v>
+      </c>
+      <c r="G77">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>35</v>
+      </c>
+      <c r="B78">
+        <v>5</v>
+      </c>
+      <c r="C78">
+        <v>0.57399999999999995</v>
+      </c>
+      <c r="D78" s="1">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="E78">
+        <v>0.34619577018749698</v>
+      </c>
+      <c r="F78">
+        <v>1.36363636363636</v>
+      </c>
+      <c r="G78">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>35</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1</v>
+      </c>
+      <c r="C79" s="2">
+        <f>AVERAGE(C74:C78)</f>
+        <v>0.5696</v>
+      </c>
+      <c r="D79" s="2">
+        <f t="shared" ref="D79:G79" si="12">AVERAGE(D74:D78)</f>
+        <v>0.45419999999999999</v>
+      </c>
+      <c r="E79" s="2">
+        <f t="shared" si="12"/>
+        <v>0.21969079311877343</v>
+      </c>
+      <c r="F79" s="2">
+        <f t="shared" si="12"/>
+        <v>0.98181818181818059</v>
+      </c>
+      <c r="G79" s="2">
+        <f t="shared" si="12"/>
+        <v>10.8</v>
+      </c>
+      <c r="H79" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5737,10 +6030,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{187587CD-8352-4BCD-AE7D-075D1C35E026}">
-  <dimension ref="A1:I73"/>
+  <dimension ref="A1:I79"/>
   <sheetViews>
     <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C73" activeCellId="6" sqref="C37:G37 C43:G43 C49:G49 C55:G55 C61:G61 C67:G67 C73:G73"/>
+      <selection activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -7276,7 +7569,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>33</v>
       </c>
@@ -7299,7 +7592,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>33</v>
       </c>
@@ -7322,7 +7615,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>33</v>
       </c>
@@ -7350,7 +7643,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>34</v>
       </c>
@@ -7373,7 +7666,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>34</v>
       </c>
@@ -7396,7 +7689,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>34</v>
       </c>
@@ -7419,7 +7712,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>34</v>
       </c>
@@ -7442,7 +7735,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>34</v>
       </c>
@@ -7465,7 +7758,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>34</v>
       </c>
@@ -7492,6 +7785,150 @@
         <f t="shared" si="11"/>
         <v>11.4</v>
       </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>35</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="C74">
+        <v>0.79300000000000004</v>
+      </c>
+      <c r="D74">
+        <v>0.71699999999999997</v>
+      </c>
+      <c r="E74">
+        <v>6.7503772916977196</v>
+      </c>
+      <c r="F74">
+        <v>9.0909090909090898E-2</v>
+      </c>
+      <c r="G74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>35</v>
+      </c>
+      <c r="B75">
+        <v>2</v>
+      </c>
+      <c r="C75">
+        <v>0.78600000000000003</v>
+      </c>
+      <c r="D75" s="1">
+        <v>0.70899999999999996</v>
+      </c>
+      <c r="E75">
+        <v>9.0913748809588792</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>35</v>
+      </c>
+      <c r="B76">
+        <v>3</v>
+      </c>
+      <c r="C76">
+        <v>0.78300000000000003</v>
+      </c>
+      <c r="D76" s="1">
+        <v>0.71399999999999997</v>
+      </c>
+      <c r="E76">
+        <v>3.5002282403137599</v>
+      </c>
+      <c r="F76">
+        <v>0.27272727272727298</v>
+      </c>
+      <c r="G76">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>35</v>
+      </c>
+      <c r="B77">
+        <v>4</v>
+      </c>
+      <c r="C77">
+        <v>0.81</v>
+      </c>
+      <c r="D77">
+        <v>0.73599999999999999</v>
+      </c>
+      <c r="E77">
+        <v>6.7503772916977196</v>
+      </c>
+      <c r="F77">
+        <v>9.0909090909090898E-2</v>
+      </c>
+      <c r="G77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>35</v>
+      </c>
+      <c r="B78">
+        <v>5</v>
+      </c>
+      <c r="C78">
+        <v>0.78</v>
+      </c>
+      <c r="D78" s="1">
+        <v>0.70299999999999996</v>
+      </c>
+      <c r="E78">
+        <v>1.5626164502245199</v>
+      </c>
+      <c r="F78">
+        <v>0.45454545454545497</v>
+      </c>
+      <c r="G78">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>35</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1</v>
+      </c>
+      <c r="C79" s="2">
+        <f>AVERAGE(C74:C78)</f>
+        <v>0.79039999999999999</v>
+      </c>
+      <c r="D79" s="2">
+        <f t="shared" ref="D79:G79" si="12">AVERAGE(D74:D78)</f>
+        <v>0.71579999999999988</v>
+      </c>
+      <c r="E79" s="2">
+        <f t="shared" si="12"/>
+        <v>5.5309948309785195</v>
+      </c>
+      <c r="F79" s="2">
+        <f t="shared" si="12"/>
+        <v>0.18181818181818193</v>
+      </c>
+      <c r="G79" s="2">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="H79" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -7501,10 +7938,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{404384F2-66AB-4D9C-995D-D69F554B90AB}">
-  <dimension ref="A1:I73"/>
+  <dimension ref="A1:I79"/>
   <sheetViews>
     <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C73" activeCellId="9" sqref="C19:G19 C25:G25 C31:G31 C37:G37 C43:G43 C55:G55 C49:G49 C61:G61 C67:G67 C73:G73"/>
+      <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -9040,7 +9477,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>33</v>
       </c>
@@ -9063,7 +9500,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>33</v>
       </c>
@@ -9086,7 +9523,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>33</v>
       </c>
@@ -9114,7 +9551,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>34</v>
       </c>
@@ -9137,7 +9574,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>34</v>
       </c>
@@ -9160,7 +9597,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>34</v>
       </c>
@@ -9183,7 +9620,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>34</v>
       </c>
@@ -9206,7 +9643,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>34</v>
       </c>
@@ -9229,7 +9666,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>34</v>
       </c>
@@ -9256,6 +9693,150 @@
         <f t="shared" si="11"/>
         <v>11.4</v>
       </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>35</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="C74">
+        <v>4.3E-3</v>
+      </c>
+      <c r="D74" s="1">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>1.0909090909090899</v>
+      </c>
+      <c r="G74">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>35</v>
+      </c>
+      <c r="B75">
+        <v>2</v>
+      </c>
+      <c r="C75">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="D75" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="E75">
+        <v>0.50004192247137602</v>
+      </c>
+      <c r="F75">
+        <v>0.63636363636363602</v>
+      </c>
+      <c r="G75">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>35</v>
+      </c>
+      <c r="B76">
+        <v>3</v>
+      </c>
+      <c r="C76">
+        <v>2.8999999999999998E-3</v>
+      </c>
+      <c r="D76" s="1">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0.21054494808576399</v>
+      </c>
+      <c r="F76">
+        <v>0.72727272727272696</v>
+      </c>
+      <c r="G76">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>35</v>
+      </c>
+      <c r="B77">
+        <v>4</v>
+      </c>
+      <c r="C77">
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="D77" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="E77">
+        <v>0.50004192247137602</v>
+      </c>
+      <c r="F77">
+        <v>0.63636363636363602</v>
+      </c>
+      <c r="G77">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>35</v>
+      </c>
+      <c r="B78">
+        <v>5</v>
+      </c>
+      <c r="C78">
+        <v>1.8E-3</v>
+      </c>
+      <c r="D78" s="1">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>1.5626164502245199</v>
+      </c>
+      <c r="F78">
+        <v>0.45454545454545497</v>
+      </c>
+      <c r="G78">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>35</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1</v>
+      </c>
+      <c r="C79" s="2">
+        <f>AVERAGE(C74:C78)</f>
+        <v>3.0199999999999997E-3</v>
+      </c>
+      <c r="D79" s="2">
+        <f t="shared" ref="D79:G79" si="12">AVERAGE(D74:D78)</f>
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="E79" s="2">
+        <f t="shared" si="12"/>
+        <v>0.55464904865060716</v>
+      </c>
+      <c r="F79" s="2">
+        <f t="shared" si="12"/>
+        <v>0.70909090909090877</v>
+      </c>
+      <c r="G79" s="2">
+        <f t="shared" si="12"/>
+        <v>7.8</v>
+      </c>
+      <c r="H79" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -9265,10 +9846,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FE60E72-8E44-44FC-A121-635D3D54B773}">
-  <dimension ref="A1:I73"/>
+  <dimension ref="A1:I79"/>
   <sheetViews>
     <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="C73" activeCellId="8" sqref="C25:G25 C31:G31 C37:G37 C43:G43 C49:G49 C55:G55 C61:G61 C67:G67 C73:G73"/>
+      <selection activeCell="A74" sqref="A74:XFD79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -10804,7 +11385,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>33</v>
       </c>
@@ -10827,7 +11408,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>33</v>
       </c>
@@ -10850,7 +11431,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>33</v>
       </c>
@@ -10878,7 +11459,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>34</v>
       </c>
@@ -10901,7 +11482,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>34</v>
       </c>
@@ -10924,7 +11505,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>34</v>
       </c>
@@ -10947,7 +11528,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>34</v>
       </c>
@@ -10970,7 +11551,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>34</v>
       </c>
@@ -10993,7 +11574,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>34</v>
       </c>
@@ -11020,6 +11601,150 @@
         <f t="shared" si="11"/>
         <v>8</v>
       </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>35</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="C74">
+        <v>8.5900000000000004E-2</v>
+      </c>
+      <c r="D74">
+        <v>2.4199999999999999E-2</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>1.0909090909090899</v>
+      </c>
+      <c r="G74">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>35</v>
+      </c>
+      <c r="B75">
+        <v>2</v>
+      </c>
+      <c r="C75">
+        <v>8.5900000000000004E-2</v>
+      </c>
+      <c r="D75" s="1">
+        <v>2.52E-2</v>
+      </c>
+      <c r="E75">
+        <v>5.0004658095770503E-2</v>
+      </c>
+      <c r="F75">
+        <v>0.81818181818181801</v>
+      </c>
+      <c r="G75">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>35</v>
+      </c>
+      <c r="B76">
+        <v>3</v>
+      </c>
+      <c r="C76">
+        <v>8.1299999999999997E-2</v>
+      </c>
+      <c r="D76" s="1">
+        <v>2.2800000000000001E-2</v>
+      </c>
+      <c r="E76">
+        <v>0.50004192247137602</v>
+      </c>
+      <c r="F76">
+        <v>0.63636363636363602</v>
+      </c>
+      <c r="G76">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>35</v>
+      </c>
+      <c r="B77">
+        <v>4</v>
+      </c>
+      <c r="C77">
+        <v>9.4899999999999998E-2</v>
+      </c>
+      <c r="D77">
+        <v>2.86E-2</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>1.0909090909090899</v>
+      </c>
+      <c r="G77">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>35</v>
+      </c>
+      <c r="B78">
+        <v>5</v>
+      </c>
+      <c r="C78">
+        <v>9.2200000000000004E-2</v>
+      </c>
+      <c r="D78" s="1">
+        <v>2.6100000000000002E-2</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>1.0909090909090899</v>
+      </c>
+      <c r="G78">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>35</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1</v>
+      </c>
+      <c r="C79" s="2">
+        <f>AVERAGE(C74:C78)</f>
+        <v>8.8039999999999993E-2</v>
+      </c>
+      <c r="D79" s="2">
+        <f t="shared" ref="D79:G79" si="12">AVERAGE(D74:D78)</f>
+        <v>2.5380000000000003E-2</v>
+      </c>
+      <c r="E79" s="2">
+        <f t="shared" si="12"/>
+        <v>0.1100093161134293</v>
+      </c>
+      <c r="F79" s="2">
+        <f t="shared" si="12"/>
+        <v>0.94545454545454477</v>
+      </c>
+      <c r="G79" s="2">
+        <f t="shared" si="12"/>
+        <v>10.4</v>
+      </c>
+      <c r="H79" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -11029,10 +11754,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{315763ED-3337-484B-B380-835732FE8D66}">
-  <dimension ref="A1:I73"/>
+  <dimension ref="A1:I79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="A74" sqref="A74:XFD79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -12553,7 +13278,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>33</v>
       </c>
@@ -12576,7 +13301,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>33</v>
       </c>
@@ -12599,7 +13324,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>33</v>
       </c>
@@ -12627,7 +13352,7 @@
         <v>11.75</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>34</v>
       </c>
@@ -12650,7 +13375,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>34</v>
       </c>
@@ -12673,7 +13398,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>34</v>
       </c>
@@ -12696,7 +13421,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>34</v>
       </c>
@@ -12719,7 +13444,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>34</v>
       </c>
@@ -12742,7 +13467,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>34</v>
       </c>
@@ -12769,6 +13494,150 @@
         <f t="shared" si="11"/>
         <v>12.2</v>
       </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>35</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="C74">
+        <v>0.35289999999999999</v>
+      </c>
+      <c r="D74">
+        <v>0.2177</v>
+      </c>
+      <c r="E74">
+        <v>0.94125099907908005</v>
+      </c>
+      <c r="F74">
+        <v>0.54545454545454497</v>
+      </c>
+      <c r="G74">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>35</v>
+      </c>
+      <c r="B75">
+        <v>2</v>
+      </c>
+      <c r="C75">
+        <v>0.34279999999999999</v>
+      </c>
+      <c r="D75" s="1">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>0.90909090909090895</v>
+      </c>
+      <c r="G75">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>35</v>
+      </c>
+      <c r="B76">
+        <v>3</v>
+      </c>
+      <c r="C76">
+        <v>0.33019999999999999</v>
+      </c>
+      <c r="D76" s="1">
+        <v>0.19359999999999999</v>
+      </c>
+      <c r="E76">
+        <v>0.94125099907908005</v>
+      </c>
+      <c r="F76">
+        <v>0.54545454545454497</v>
+      </c>
+      <c r="G76">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>35</v>
+      </c>
+      <c r="B77">
+        <v>4</v>
+      </c>
+      <c r="C77">
+        <v>0.35549999999999998</v>
+      </c>
+      <c r="D77">
+        <v>0.2157</v>
+      </c>
+      <c r="E77">
+        <v>2.40016768754221</v>
+      </c>
+      <c r="F77">
+        <v>0.36363636363636398</v>
+      </c>
+      <c r="G77">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>35</v>
+      </c>
+      <c r="B78">
+        <v>5</v>
+      </c>
+      <c r="C78">
+        <v>0.34770000000000001</v>
+      </c>
+      <c r="D78" s="1">
+        <v>0.20580000000000001</v>
+      </c>
+      <c r="E78">
+        <v>2.40016768754221</v>
+      </c>
+      <c r="F78">
+        <v>0.36363636363636398</v>
+      </c>
+      <c r="G78">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>35</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1</v>
+      </c>
+      <c r="C79" s="2">
+        <f>AVERAGE(C74:C78)</f>
+        <v>0.34581999999999996</v>
+      </c>
+      <c r="D79" s="2">
+        <f t="shared" ref="D79:G79" si="12">AVERAGE(D74:D78)</f>
+        <v>0.20716000000000001</v>
+      </c>
+      <c r="E79" s="2">
+        <f t="shared" si="12"/>
+        <v>1.3365674746485159</v>
+      </c>
+      <c r="F79" s="2">
+        <f t="shared" si="12"/>
+        <v>0.5454545454545453</v>
+      </c>
+      <c r="G79" s="2">
+        <f t="shared" si="12"/>
+        <v>6</v>
+      </c>
+      <c r="H79" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Tables/Table5_T1EandPower_Meta.xlsx
+++ b/Tables/Table5_T1EandPower_Meta.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aarhus\Courses\Thesis\An-evaluation-of-software-for-performing-GWAS-mixed-model-association-analysis\Tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aarhus\Courses\Thesis\type1error_power\META_ANALYSIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23794BF5-1A6A-4F6E-9D05-6D409F972CE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B32A9B4-C56A-46C6-A820-AB83F5496BBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="10980" windowHeight="13770" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="13" r:id="rId1"/>
@@ -190,7 +190,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Bolt-lmm</t>
+    <t>BOLT_LMM</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -543,7 +543,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A8" sqref="A8:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -877,10 +877,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC27B712-70FD-4C8F-8A04-C84C468A46F1}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:G13"/>
+      <selection activeCell="B16" sqref="A1:I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -925,10 +925,10 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>4.58E-2</v>
+        <v>0.1162</v>
       </c>
       <c r="D2">
-        <v>2.3599999999999999E-2</v>
+        <v>3.9199999999999999E-2</v>
       </c>
       <c r="E2">
         <v>0.500042104475238</v>
@@ -948,10 +948,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="1">
-        <v>4.58E-2</v>
+        <v>0.1062</v>
       </c>
       <c r="D3">
-        <v>1.7999999999999999E-2</v>
+        <v>3.4799999999999998E-2</v>
       </c>
       <c r="E3">
         <v>5.0004830731179499E-2</v>
@@ -971,10 +971,10 @@
         <v>3</v>
       </c>
       <c r="C4" s="1">
-        <v>4.6800000000000001E-2</v>
+        <v>0.1178</v>
       </c>
       <c r="D4">
-        <v>2.18E-2</v>
+        <v>3.8600000000000002E-2</v>
       </c>
       <c r="E4">
         <v>0.21054495937538101</v>
@@ -994,10 +994,10 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>9.0399999999999994E-2</v>
+        <v>0.18440000000000001</v>
       </c>
       <c r="D5" s="1">
-        <v>4.6600000000000003E-2</v>
+        <v>7.8600000000000003E-2</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1017,10 +1017,10 @@
         <v>5</v>
       </c>
       <c r="C6" s="1">
-        <v>4.6399999999999997E-2</v>
+        <v>0.108</v>
       </c>
       <c r="D6" s="1">
-        <v>2.3400000000000001E-2</v>
+        <v>4.0399999999999998E-2</v>
       </c>
       <c r="E6">
         <v>6.7503782572149102</v>
@@ -1041,11 +1041,11 @@
       </c>
       <c r="C7" s="2">
         <f>AVERAGE(C2:C6)</f>
-        <v>5.5039999999999999E-2</v>
+        <v>0.12651999999999999</v>
       </c>
       <c r="D7" s="2">
         <f t="shared" ref="D7:G7" si="0">AVERAGE(D2:D6)</f>
-        <v>2.6679999999999999E-2</v>
+        <v>4.632E-2</v>
       </c>
       <c r="E7" s="2">
         <f t="shared" si="0"/>
@@ -1068,10 +1068,10 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>4.6199999999999998E-2</v>
+        <v>0.1208</v>
       </c>
       <c r="D8">
-        <v>2.5399999999999999E-2</v>
+        <v>4.0599999999999997E-2</v>
       </c>
       <c r="E8">
         <v>3.50022837860512</v>
@@ -1091,10 +1091,10 @@
         <v>2</v>
       </c>
       <c r="C9">
-        <v>5.3199999999999997E-2</v>
+        <v>0.1134</v>
       </c>
       <c r="D9">
-        <v>2.4E-2</v>
+        <v>4.3799999999999999E-2</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1114,10 +1114,10 @@
         <v>3</v>
       </c>
       <c r="C10">
-        <v>5.5199999999999999E-2</v>
+        <v>0.12620000000000001</v>
       </c>
       <c r="D10" s="1">
-        <v>2.76E-2</v>
+        <v>4.58E-2</v>
       </c>
       <c r="E10">
         <v>2.40016778914497</v>
@@ -1137,10 +1137,10 @@
         <v>4</v>
       </c>
       <c r="C11">
-        <v>0.1</v>
+        <v>0.1958</v>
       </c>
       <c r="D11">
-        <v>4.9799999999999997E-2</v>
+        <v>8.2600000000000007E-2</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1160,10 +1160,10 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>5.16E-2</v>
+        <v>0.1196</v>
       </c>
       <c r="D12" s="1">
-        <v>2.6599999999999999E-2</v>
+        <v>4.2599999999999999E-2</v>
       </c>
       <c r="E12">
         <v>4.9233752121096703</v>
@@ -1184,11 +1184,11 @@
       </c>
       <c r="C13" s="2">
         <f>AVERAGE(C8:C12)</f>
-        <v>6.1239999999999996E-2</v>
+        <v>0.13516</v>
       </c>
       <c r="D13" s="2">
         <f t="shared" ref="D13:G13" si="1">AVERAGE(D8:D12)</f>
-        <v>3.0679999999999995E-2</v>
+        <v>5.108E-2</v>
       </c>
       <c r="E13" s="2">
         <f t="shared" si="1"/>
@@ -1201,6 +1201,149 @@
       <c r="G13" s="2">
         <f t="shared" si="1"/>
         <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="D14">
+        <v>0.42</v>
+      </c>
+      <c r="E14">
+        <v>27.1520071972392</v>
+      </c>
+      <c r="F14">
+        <v>1.0484171322160101</v>
+      </c>
+      <c r="G14">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>0.64800000000000002</v>
+      </c>
+      <c r="D15">
+        <v>0.46100000000000002</v>
+      </c>
+      <c r="E15">
+        <v>27.726233948517901</v>
+      </c>
+      <c r="F15">
+        <v>0.97113594040968299</v>
+      </c>
+      <c r="G15">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="D16">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="E16">
+        <v>28.512109027088599</v>
+      </c>
+      <c r="F16">
+        <v>0.98044692737430195</v>
+      </c>
+      <c r="G16">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.66600000000000004</v>
+      </c>
+      <c r="D17">
+        <v>0.46200000000000002</v>
+      </c>
+      <c r="E17">
+        <v>27.292865326193699</v>
+      </c>
+      <c r="F17">
+        <v>0.97579143389199297</v>
+      </c>
+      <c r="G17">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="D18">
+        <v>0.48199999999999998</v>
+      </c>
+      <c r="E18">
+        <v>28.707328199823799</v>
+      </c>
+      <c r="F18">
+        <v>0.97392923649906904</v>
+      </c>
+      <c r="G18">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="2">
+        <f t="shared" ref="C19:E19" si="2">AVERAGE(C16:C18)</f>
+        <v>0.67500000000000016</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" si="2"/>
+        <v>0.47300000000000003</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" si="2"/>
+        <v>28.170767517702032</v>
+      </c>
+      <c r="F19" s="2">
+        <f>AVERAGE(F16:F18)</f>
+        <v>0.97672253258845476</v>
+      </c>
+      <c r="G19" s="2">
+        <f>AVERAGE(G16:G18)</f>
+        <v>675</v>
       </c>
     </row>
   </sheetData>
@@ -1211,10 +1354,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62C62152-1CAE-40FF-BDBB-B2FDB3C35821}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:G13"/>
+      <selection activeCell="B16" sqref="A1:I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1259,7 +1402,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>6.0000000000000002E-5</v>
+        <v>1.2019999999999999E-2</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1282,7 +1425,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="1">
-        <v>8.0000000000000007E-5</v>
+        <v>1.136E-2</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1305,10 +1448,10 @@
         <v>3</v>
       </c>
       <c r="C4" s="1">
+        <v>1.124E-2</v>
+      </c>
+      <c r="D4" s="1">
         <v>2.0000000000000002E-5</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
       </c>
       <c r="E4">
         <v>1.5626165207826499</v>
@@ -1328,7 +1471,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="1">
-        <v>8.0000000000000007E-5</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
@@ -1351,10 +1494,10 @@
         <v>5</v>
       </c>
       <c r="C6" s="1">
-        <v>1.8000000000000001E-4</v>
+        <v>1.106E-2</v>
       </c>
       <c r="D6" s="1">
-        <v>0</v>
+        <v>2.0000000000000002E-5</v>
       </c>
       <c r="E6">
         <v>0.50004264836893697</v>
@@ -1375,11 +1518,11 @@
       </c>
       <c r="C7" s="2">
         <f>AVERAGE(C2:C6)</f>
-        <v>8.4000000000000009E-5</v>
+        <v>1.1736E-2</v>
       </c>
       <c r="D7" s="2">
         <f t="shared" ref="D7:G7" si="0">AVERAGE(D2:D6)</f>
-        <v>0</v>
+        <v>8.0000000000000013E-6</v>
       </c>
       <c r="E7" s="2">
         <f t="shared" si="0"/>
@@ -1402,7 +1545,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="1">
-        <v>2.0000000000000002E-5</v>
+        <v>1.1900000000000001E-2</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1425,7 +1568,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="1">
-        <v>8.0000000000000007E-5</v>
+        <v>1.0959999999999999E-2</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1448,10 +1591,10 @@
         <v>3</v>
       </c>
       <c r="C10" s="1">
-        <v>1E-4</v>
+        <v>1.4420000000000001E-2</v>
       </c>
       <c r="D10" s="1">
-        <v>0</v>
+        <v>6.0000000000000002E-5</v>
       </c>
       <c r="E10">
         <v>3.5002284084128901</v>
@@ -1471,10 +1614,10 @@
         <v>4</v>
       </c>
       <c r="C11">
-        <v>1.4400000000000001E-3</v>
+        <v>1.6539999999999999E-2</v>
       </c>
       <c r="D11">
-        <v>1.8000000000000001E-4</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1494,10 +1637,10 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>1.8000000000000001E-4</v>
+        <v>1.1140000000000001E-2</v>
       </c>
       <c r="D12" s="1">
-        <v>0</v>
+        <v>6.0000000000000002E-5</v>
       </c>
       <c r="E12">
         <v>5.0004660918200897E-2</v>
@@ -1518,11 +1661,11 @@
       </c>
       <c r="C13" s="2">
         <f>AVERAGE(C8:C12)</f>
-        <v>3.6400000000000007E-4</v>
+        <v>1.2992E-2</v>
       </c>
       <c r="D13" s="2">
         <f t="shared" ref="D13:G13" si="1">AVERAGE(D8:D12)</f>
-        <v>3.6000000000000001E-5</v>
+        <v>2.4399999999999999E-4</v>
       </c>
       <c r="E13" s="2">
         <f t="shared" si="1"/>
@@ -1535,6 +1678,149 @@
       <c r="G13" s="2">
         <f t="shared" si="1"/>
         <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1">
+        <v>2.46E-2</v>
+      </c>
+      <c r="D14" s="1">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="E14">
+        <v>1.3428591154263301</v>
+      </c>
+      <c r="F14">
+        <v>0.94692737430167595</v>
+      </c>
+      <c r="G14">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>2.3800000000000002E-2</v>
+      </c>
+      <c r="D15" s="1">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="E15">
+        <v>1.31462185905705</v>
+      </c>
+      <c r="F15">
+        <v>0.99348230912476698</v>
+      </c>
+      <c r="G15">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16" s="1">
+        <v>2.47E-2</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>1.3143056858355799</v>
+      </c>
+      <c r="F16">
+        <v>1.0437616387337101</v>
+      </c>
+      <c r="G16">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17" s="1">
+        <v>2.1700000000000001E-2</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="E17">
+        <v>1.2740742087568899</v>
+      </c>
+      <c r="F17">
+        <v>1.0344506517690899</v>
+      </c>
+      <c r="G17">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="C18" s="1">
+        <v>2.3599999999999999E-2</v>
+      </c>
+      <c r="D18" s="1">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="E18">
+        <v>1.3068340969218999</v>
+      </c>
+      <c r="F18">
+        <v>0.98137802607076396</v>
+      </c>
+      <c r="G18">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="2">
+        <f t="shared" ref="C19:E19" si="2">AVERAGE(C16:C18)</f>
+        <v>2.3333333333333331E-2</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" si="2"/>
+        <v>1E-4</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" si="2"/>
+        <v>1.2984046638381235</v>
+      </c>
+      <c r="F19" s="2">
+        <f>AVERAGE(F16:F18)</f>
+        <v>1.0198634388578547</v>
+      </c>
+      <c r="G19" s="2">
+        <f>AVERAGE(G16:G18)</f>
+        <v>233.33333333333334</v>
       </c>
     </row>
   </sheetData>
@@ -1545,10 +1831,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1F6FFF6-F1D3-40E0-A85E-6F134C7B5461}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:G13"/>
+      <selection activeCell="B16" sqref="A1:I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1593,10 +1879,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
+        <v>1.9480000000000001E-2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1E-4</v>
       </c>
       <c r="E2">
         <v>0.50004303831366304</v>
@@ -1616,10 +1902,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="1">
-        <v>5.0000000000000001E-4</v>
+        <v>1.89E-2</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1.6000000000000001E-4</v>
       </c>
       <c r="E3">
         <v>2.40016778914497</v>
@@ -1639,10 +1925,10 @@
         <v>3</v>
       </c>
       <c r="C4" s="1">
-        <v>7.3999999999999999E-4</v>
+        <v>2.086E-2</v>
       </c>
       <c r="D4">
-        <v>1.3999999999999999E-4</v>
+        <v>4.4000000000000002E-4</v>
       </c>
       <c r="E4">
         <v>4.9233752121096703</v>
@@ -1662,10 +1948,10 @@
         <v>4</v>
       </c>
       <c r="C5" s="1">
-        <v>5.9999999999999995E-4</v>
+        <v>2.3300000000000001E-2</v>
       </c>
       <c r="D5" s="1">
-        <v>0</v>
+        <v>2.2000000000000001E-4</v>
       </c>
       <c r="E5">
         <v>1.5626202258321999</v>
@@ -1685,10 +1971,10 @@
         <v>5</v>
       </c>
       <c r="C6" s="1">
-        <v>5.1999999999999995E-4</v>
+        <v>2.034E-2</v>
       </c>
       <c r="D6" s="1">
-        <v>2.0000000000000002E-5</v>
+        <v>2.5999999999999998E-4</v>
       </c>
       <c r="E6">
         <v>2.40016778914497</v>
@@ -1709,11 +1995,11 @@
       </c>
       <c r="C7" s="2">
         <f>AVERAGE(C2:C6)</f>
-        <v>5.5199999999999997E-4</v>
+        <v>2.0576000000000001E-2</v>
       </c>
       <c r="D7" s="2">
         <f t="shared" ref="D7:G7" si="0">AVERAGE(D2:D6)</f>
-        <v>3.1999999999999999E-5</v>
+        <v>2.3600000000000002E-4</v>
       </c>
       <c r="E7" s="2">
         <f t="shared" si="0"/>
@@ -1736,10 +2022,10 @@
         <v>1</v>
       </c>
       <c r="C8" s="1">
-        <v>4.6000000000000001E-4</v>
+        <v>2.2620000000000001E-2</v>
       </c>
       <c r="D8" s="1">
-        <v>4.0000000000000003E-5</v>
+        <v>1.8000000000000001E-4</v>
       </c>
       <c r="E8">
         <v>0.500041947872777</v>
@@ -1759,10 +2045,10 @@
         <v>2</v>
       </c>
       <c r="C9">
-        <v>1.72E-3</v>
+        <v>2.3460000000000002E-2</v>
       </c>
       <c r="D9" s="1">
-        <v>6.0000000000000002E-5</v>
+        <v>8.8000000000000003E-4</v>
       </c>
       <c r="E9">
         <v>2.40016778914497</v>
@@ -1782,10 +2068,10 @@
         <v>3</v>
       </c>
       <c r="C10">
-        <v>1.7600000000000001E-3</v>
+        <v>2.3859999999999999E-2</v>
       </c>
       <c r="D10" s="1">
-        <v>5.8E-4</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="E10">
         <v>1.5626165207826499</v>
@@ -1805,10 +2091,10 @@
         <v>4</v>
       </c>
       <c r="C11">
-        <v>6.2E-4</v>
+        <v>2.7199999999999998E-2</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>2.7999999999999998E-4</v>
       </c>
       <c r="E11">
         <v>0.94125104423670403</v>
@@ -1828,10 +2114,10 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>1.4400000000000001E-3</v>
+        <v>2.274E-2</v>
       </c>
       <c r="D12" s="1">
-        <v>8.0000000000000007E-5</v>
+        <v>7.7999999999999999E-4</v>
       </c>
       <c r="E12">
         <v>1.5626165207826499</v>
@@ -1852,11 +2138,11 @@
       </c>
       <c r="C13" s="2">
         <f>AVERAGE(C8:C12)</f>
-        <v>1.2000000000000001E-3</v>
+        <v>2.3976000000000001E-2</v>
       </c>
       <c r="D13" s="2">
         <f t="shared" ref="D13:G13" si="1">AVERAGE(D8:D12)</f>
-        <v>1.5200000000000001E-4</v>
+        <v>6.8399999999999993E-4</v>
       </c>
       <c r="E13" s="2">
         <f t="shared" si="1"/>
@@ -1869,6 +2155,149 @@
       <c r="G13" s="2">
         <f t="shared" si="1"/>
         <v>5.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.1094</v>
+      </c>
+      <c r="D14">
+        <v>6.6E-3</v>
+      </c>
+      <c r="E14">
+        <v>2.5873959512418998</v>
+      </c>
+      <c r="F14">
+        <v>1.00186219739292</v>
+      </c>
+      <c r="G14">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="D15">
+        <v>1.46E-2</v>
+      </c>
+      <c r="E15">
+        <v>3.0157632308628801</v>
+      </c>
+      <c r="F15">
+        <v>0.99813780260707596</v>
+      </c>
+      <c r="G15">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.1164</v>
+      </c>
+      <c r="D16">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="E16">
+        <v>2.6962410030707802</v>
+      </c>
+      <c r="F16">
+        <v>1.02420856610801</v>
+      </c>
+      <c r="G16">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.1096</v>
+      </c>
+      <c r="D17">
+        <v>8.8000000000000005E-3</v>
+      </c>
+      <c r="E17">
+        <v>2.6558983994705598</v>
+      </c>
+      <c r="F17">
+        <v>1.0363128491620099</v>
+      </c>
+      <c r="G17">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.1148</v>
+      </c>
+      <c r="D18">
+        <v>9.4000000000000004E-3</v>
+      </c>
+      <c r="E18">
+        <v>2.7350084624497799</v>
+      </c>
+      <c r="F18">
+        <v>1.0810055865921799</v>
+      </c>
+      <c r="G18">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="2">
+        <f t="shared" ref="C19:E19" si="2">AVERAGE(C16:C18)</f>
+        <v>0.11359999999999999</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" si="2"/>
+        <v>9.0666666666666673E-3</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" si="2"/>
+        <v>2.69571595499704</v>
+      </c>
+      <c r="F19" s="2">
+        <f>AVERAGE(F16:F18)</f>
+        <v>1.0471756672874</v>
+      </c>
+      <c r="G19" s="2">
+        <f>AVERAGE(G16:G18)</f>
+        <v>1136</v>
       </c>
     </row>
   </sheetData>
@@ -1879,10 +2308,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F9CDDA7-47FE-4C2B-B7DB-128EECE88BE5}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:G13"/>
+      <selection activeCell="A14" sqref="A1:I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1927,10 +2356,10 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>1.8600000000000001E-3</v>
+        <v>2.9020000000000001E-2</v>
       </c>
       <c r="D2" s="1">
-        <v>4.0000000000000003E-5</v>
+        <v>8.8000000000000003E-4</v>
       </c>
       <c r="E2">
         <v>1.5626165566371999</v>
@@ -1950,10 +2379,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="1">
-        <v>1.3799999999999999E-3</v>
+        <v>2.828E-2</v>
       </c>
       <c r="D3" s="1">
-        <v>6.0000000000000002E-5</v>
+        <v>6.9999999999999999E-4</v>
       </c>
       <c r="E3">
         <v>1.5626165207826499</v>
@@ -1973,10 +2402,10 @@
         <v>3</v>
       </c>
       <c r="C4" s="1">
-        <v>1.58E-3</v>
+        <v>2.886E-2</v>
       </c>
       <c r="D4" s="1">
-        <v>8.0000000000000007E-5</v>
+        <v>1E-3</v>
       </c>
       <c r="E4">
         <v>4.9233752121096703</v>
@@ -1996,10 +2425,10 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>3.7200000000000002E-3</v>
+        <v>4.3319999999999997E-2</v>
       </c>
       <c r="D5" s="1">
-        <v>1.6000000000000001E-4</v>
+        <v>1.64E-3</v>
       </c>
       <c r="E5">
         <v>3.50022837860512</v>
@@ -2019,10 +2448,10 @@
         <v>5</v>
       </c>
       <c r="C6" s="1">
-        <v>2.82E-3</v>
+        <v>2.9520000000000001E-2</v>
       </c>
       <c r="D6" s="1">
-        <v>4.0000000000000003E-5</v>
+        <v>1.4599999999999999E-3</v>
       </c>
       <c r="E6">
         <v>6.7503775202975396</v>
@@ -2043,11 +2472,11 @@
       </c>
       <c r="C7" s="2">
         <f>AVERAGE(C2:C6)</f>
-        <v>2.2719999999999997E-3</v>
+        <v>3.1799999999999995E-2</v>
       </c>
       <c r="D7" s="2">
         <f t="shared" ref="D7:G7" si="0">AVERAGE(D2:D6)</f>
-        <v>7.6000000000000004E-5</v>
+        <v>1.1359999999999999E-3</v>
       </c>
       <c r="E7" s="2">
         <f t="shared" si="0"/>
@@ -2070,10 +2499,10 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>2.5600000000000002E-3</v>
+        <v>3.0779999999999998E-2</v>
       </c>
       <c r="D8" s="1">
-        <v>2.9999999999999997E-4</v>
+        <v>1.2800000000000001E-3</v>
       </c>
       <c r="E8">
         <v>3.50022837860512</v>
@@ -2093,10 +2522,10 @@
         <v>2</v>
       </c>
       <c r="C9">
-        <v>9.4400000000000005E-3</v>
+        <v>3.8240000000000003E-2</v>
       </c>
       <c r="D9">
-        <v>4.7800000000000004E-3</v>
+        <v>7.8399999999999997E-3</v>
       </c>
       <c r="E9">
         <v>1.5626165207826499</v>
@@ -2116,10 +2545,10 @@
         <v>3</v>
       </c>
       <c r="C10">
-        <v>2.7000000000000001E-3</v>
+        <v>3.1600000000000003E-2</v>
       </c>
       <c r="D10" s="1">
-        <v>2.0000000000000001E-4</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="E10">
         <v>6.7503775202975396</v>
@@ -2139,10 +2568,10 @@
         <v>4</v>
       </c>
       <c r="C11">
-        <v>7.28E-3</v>
+        <v>5.0099999999999999E-2</v>
       </c>
       <c r="D11">
-        <v>1.7600000000000001E-3</v>
+        <v>5.1399999999999996E-3</v>
       </c>
       <c r="E11">
         <v>4.9233752121096703</v>
@@ -2162,10 +2591,10 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>4.1799999999999997E-3</v>
+        <v>3.4119999999999998E-2</v>
       </c>
       <c r="D12" s="1">
-        <v>1.16E-3</v>
+        <v>3.14E-3</v>
       </c>
       <c r="E12">
         <v>3.50022837860512</v>
@@ -2186,11 +2615,11 @@
       </c>
       <c r="C13" s="2">
         <f>AVERAGE(C8:C12)</f>
-        <v>5.2319999999999997E-3</v>
+        <v>3.6968000000000001E-2</v>
       </c>
       <c r="D13" s="2">
         <f t="shared" ref="D13:G13" si="1">AVERAGE(D8:D12)</f>
-        <v>1.6400000000000002E-3</v>
+        <v>3.7399999999999994E-3</v>
       </c>
       <c r="E13" s="2">
         <f t="shared" si="1"/>
@@ -2203,6 +2632,149 @@
       <c r="G13" s="2">
         <f t="shared" si="1"/>
         <v>2.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.1847</v>
+      </c>
+      <c r="D14">
+        <v>2.93E-2</v>
+      </c>
+      <c r="E14">
+        <v>3.7461950270440099</v>
+      </c>
+      <c r="F14">
+        <v>1.02048417132216</v>
+      </c>
+      <c r="G14">
+        <v>1847</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>0.20660000000000001</v>
+      </c>
+      <c r="D15">
+        <v>3.6200000000000003E-2</v>
+      </c>
+      <c r="E15">
+        <v>4.1912092373822398</v>
+      </c>
+      <c r="F15">
+        <v>1.0260707635009301</v>
+      </c>
+      <c r="G15">
+        <v>2066</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.21360000000000001</v>
+      </c>
+      <c r="D16">
+        <v>4.0099999999999997E-2</v>
+      </c>
+      <c r="E16">
+        <v>4.3948484775592496</v>
+      </c>
+      <c r="F16">
+        <v>0.93668528864059597</v>
+      </c>
+      <c r="G16">
+        <v>2136</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.22140000000000001</v>
+      </c>
+      <c r="D17">
+        <v>3.6700000000000003E-2</v>
+      </c>
+      <c r="E17">
+        <v>4.2148200031409502</v>
+      </c>
+      <c r="F17">
+        <v>0.96927374301675995</v>
+      </c>
+      <c r="G17">
+        <v>2214</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.21049999999999999</v>
+      </c>
+      <c r="D18">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="E18">
+        <v>4.2137842787441704</v>
+      </c>
+      <c r="F18">
+        <v>0.96927374301675995</v>
+      </c>
+      <c r="G18">
+        <v>2105</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="2">
+        <f t="shared" ref="C19:E19" si="2">AVERAGE(C16:C18)</f>
+        <v>0.2151666666666667</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" si="2"/>
+        <v>3.6933333333333339E-2</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" si="2"/>
+        <v>4.274484253148124</v>
+      </c>
+      <c r="F19" s="2">
+        <f>AVERAGE(F16:F18)</f>
+        <v>0.95841092489137203</v>
+      </c>
+      <c r="G19" s="2">
+        <f>AVERAGE(G16:G18)</f>
+        <v>2151.6666666666665</v>
       </c>
     </row>
   </sheetData>
@@ -2215,8 +2787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I79"/>
   <sheetViews>
-    <sheetView topLeftCell="A60" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B76" sqref="B76"/>
+    <sheetView topLeftCell="A51" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A74" sqref="A74:G79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3969,148 +4541,21 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>35</v>
-      </c>
-      <c r="B74">
-        <v>1</v>
-      </c>
-      <c r="C74">
-        <v>0.13700000000000001</v>
-      </c>
-      <c r="D74">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="E74">
-        <v>0</v>
-      </c>
-      <c r="F74">
-        <v>1.0909090909090899</v>
-      </c>
-      <c r="G74">
-        <v>12</v>
-      </c>
-    </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>35</v>
-      </c>
-      <c r="B75">
-        <v>2</v>
-      </c>
-      <c r="C75">
-        <v>0.159</v>
-      </c>
-      <c r="D75" s="1">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="E75">
-        <v>0</v>
-      </c>
-      <c r="F75">
-        <v>1.0909090909090899</v>
-      </c>
-      <c r="G75">
-        <v>12</v>
-      </c>
+      <c r="D75" s="1"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>35</v>
-      </c>
-      <c r="B76">
-        <v>3</v>
-      </c>
-      <c r="C76">
-        <v>0.128</v>
-      </c>
-      <c r="D76" s="1">
-        <v>4.2999999999999997E-2</v>
-      </c>
-      <c r="E76">
-        <v>0</v>
-      </c>
-      <c r="F76">
-        <v>0.90909090909090895</v>
-      </c>
-      <c r="G76">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>35</v>
-      </c>
-      <c r="B77">
-        <v>4</v>
-      </c>
-      <c r="C77">
-        <v>0.16400000000000001</v>
-      </c>
-      <c r="D77">
-        <v>5.6000000000000001E-2</v>
-      </c>
-      <c r="E77">
-        <v>0</v>
-      </c>
-      <c r="F77">
-        <v>1</v>
-      </c>
-      <c r="G77">
-        <v>11</v>
-      </c>
+      <c r="D76" s="1"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
-        <v>35</v>
-      </c>
-      <c r="B78">
-        <v>5</v>
-      </c>
-      <c r="C78">
-        <v>0.152</v>
-      </c>
-      <c r="D78" s="1">
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="E78">
-        <v>0.34619577018749698</v>
-      </c>
-      <c r="F78">
-        <v>1.36363636363636</v>
-      </c>
-      <c r="G78">
-        <v>15</v>
-      </c>
+      <c r="D78" s="1"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
-        <v>35</v>
-      </c>
-      <c r="B79" t="s">
-        <v>1</v>
-      </c>
-      <c r="C79" s="2">
-        <f>AVERAGE(C74:C78)</f>
-        <v>0.14800000000000002</v>
-      </c>
-      <c r="D79" s="2">
-        <f>AVERAGE(D74:D78)</f>
-        <v>4.5999999999999999E-2</v>
-      </c>
-      <c r="E79" s="2">
-        <f>AVERAGE(E74:E78)</f>
-        <v>6.923915403749939E-2</v>
-      </c>
-      <c r="F79" s="2">
-        <f>AVERAGE(F74:F78)</f>
-        <v>1.0909090909090897</v>
-      </c>
-      <c r="G79" s="2">
-        <f>AVERAGE(G74:G78)</f>
-        <v>12</v>
-      </c>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="2"/>
       <c r="H79" s="5"/>
     </row>
   </sheetData>
@@ -4125,7 +4570,7 @@
   <dimension ref="A1:I79"/>
   <sheetViews>
     <sheetView topLeftCell="A48" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C73" sqref="C73"/>
+      <selection activeCell="A74" sqref="A74:G79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -5878,148 +6323,21 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>35</v>
-      </c>
-      <c r="B74">
-        <v>1</v>
-      </c>
-      <c r="C74">
-        <v>0.57399999999999995</v>
-      </c>
-      <c r="D74">
-        <v>0.46300000000000002</v>
-      </c>
-      <c r="E74">
-        <v>0.21054494808576399</v>
-      </c>
-      <c r="F74">
-        <v>0.72727272727272696</v>
-      </c>
-      <c r="G74">
-        <v>8</v>
-      </c>
-    </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>35</v>
-      </c>
-      <c r="B75">
-        <v>2</v>
-      </c>
-      <c r="C75">
-        <v>0.54300000000000004</v>
-      </c>
-      <c r="D75" s="1">
-        <v>0.42599999999999999</v>
-      </c>
-      <c r="E75">
-        <v>0</v>
-      </c>
-      <c r="F75">
-        <v>1</v>
-      </c>
-      <c r="G75">
-        <v>11</v>
-      </c>
+      <c r="D75" s="1"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>35</v>
-      </c>
-      <c r="B76">
-        <v>3</v>
-      </c>
-      <c r="C76">
-        <v>0.57899999999999996</v>
-      </c>
-      <c r="D76" s="1">
-        <v>0.45200000000000001</v>
-      </c>
-      <c r="E76">
-        <v>4.1671324849230203E-2</v>
-      </c>
-      <c r="F76">
-        <v>1.1818181818181801</v>
-      </c>
-      <c r="G76">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>35</v>
-      </c>
-      <c r="B77">
-        <v>4</v>
-      </c>
-      <c r="C77">
-        <v>0.57799999999999996</v>
-      </c>
-      <c r="D77">
-        <v>0.45500000000000002</v>
-      </c>
-      <c r="E77">
-        <v>0.50004192247137602</v>
-      </c>
-      <c r="F77">
-        <v>0.63636363636363602</v>
-      </c>
-      <c r="G77">
-        <v>7</v>
-      </c>
+      <c r="D76" s="1"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
-        <v>35</v>
-      </c>
-      <c r="B78">
-        <v>5</v>
-      </c>
-      <c r="C78">
-        <v>0.57399999999999995</v>
-      </c>
-      <c r="D78" s="1">
-        <v>0.47499999999999998</v>
-      </c>
-      <c r="E78">
-        <v>0.34619577018749698</v>
-      </c>
-      <c r="F78">
-        <v>1.36363636363636</v>
-      </c>
-      <c r="G78">
-        <v>15</v>
-      </c>
+      <c r="D78" s="1"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
-        <v>35</v>
-      </c>
-      <c r="B79" t="s">
-        <v>1</v>
-      </c>
-      <c r="C79" s="2">
-        <f>AVERAGE(C74:C78)</f>
-        <v>0.5696</v>
-      </c>
-      <c r="D79" s="2">
-        <f t="shared" ref="D79:G79" si="12">AVERAGE(D74:D78)</f>
-        <v>0.45419999999999999</v>
-      </c>
-      <c r="E79" s="2">
-        <f t="shared" si="12"/>
-        <v>0.21969079311877343</v>
-      </c>
-      <c r="F79" s="2">
-        <f t="shared" si="12"/>
-        <v>0.98181818181818059</v>
-      </c>
-      <c r="G79" s="2">
-        <f t="shared" si="12"/>
-        <v>10.8</v>
-      </c>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="2"/>
       <c r="H79" s="5"/>
     </row>
   </sheetData>
@@ -6033,7 +6351,7 @@
   <dimension ref="A1:I79"/>
   <sheetViews>
     <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B69" sqref="B69"/>
+      <selection activeCell="A74" sqref="A74:G79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -7786,148 +8104,21 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>35</v>
-      </c>
-      <c r="B74">
-        <v>1</v>
-      </c>
-      <c r="C74">
-        <v>0.79300000000000004</v>
-      </c>
-      <c r="D74">
-        <v>0.71699999999999997</v>
-      </c>
-      <c r="E74">
-        <v>6.7503772916977196</v>
-      </c>
-      <c r="F74">
-        <v>9.0909090909090898E-2</v>
-      </c>
-      <c r="G74">
-        <v>1</v>
-      </c>
-    </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>35</v>
-      </c>
-      <c r="B75">
-        <v>2</v>
-      </c>
-      <c r="C75">
-        <v>0.78600000000000003</v>
-      </c>
-      <c r="D75" s="1">
-        <v>0.70899999999999996</v>
-      </c>
-      <c r="E75">
-        <v>9.0913748809588792</v>
-      </c>
-      <c r="F75">
-        <v>0</v>
-      </c>
-      <c r="G75">
-        <v>0</v>
-      </c>
+      <c r="D75" s="1"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>35</v>
-      </c>
-      <c r="B76">
-        <v>3</v>
-      </c>
-      <c r="C76">
-        <v>0.78300000000000003</v>
-      </c>
-      <c r="D76" s="1">
-        <v>0.71399999999999997</v>
-      </c>
-      <c r="E76">
-        <v>3.5002282403137599</v>
-      </c>
-      <c r="F76">
-        <v>0.27272727272727298</v>
-      </c>
-      <c r="G76">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>35</v>
-      </c>
-      <c r="B77">
-        <v>4</v>
-      </c>
-      <c r="C77">
-        <v>0.81</v>
-      </c>
-      <c r="D77">
-        <v>0.73599999999999999</v>
-      </c>
-      <c r="E77">
-        <v>6.7503772916977196</v>
-      </c>
-      <c r="F77">
-        <v>9.0909090909090898E-2</v>
-      </c>
-      <c r="G77">
-        <v>1</v>
-      </c>
+      <c r="D76" s="1"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
-        <v>35</v>
-      </c>
-      <c r="B78">
-        <v>5</v>
-      </c>
-      <c r="C78">
-        <v>0.78</v>
-      </c>
-      <c r="D78" s="1">
-        <v>0.70299999999999996</v>
-      </c>
-      <c r="E78">
-        <v>1.5626164502245199</v>
-      </c>
-      <c r="F78">
-        <v>0.45454545454545497</v>
-      </c>
-      <c r="G78">
-        <v>5</v>
-      </c>
+      <c r="D78" s="1"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
-        <v>35</v>
-      </c>
-      <c r="B79" t="s">
-        <v>1</v>
-      </c>
-      <c r="C79" s="2">
-        <f>AVERAGE(C74:C78)</f>
-        <v>0.79039999999999999</v>
-      </c>
-      <c r="D79" s="2">
-        <f t="shared" ref="D79:G79" si="12">AVERAGE(D74:D78)</f>
-        <v>0.71579999999999988</v>
-      </c>
-      <c r="E79" s="2">
-        <f t="shared" si="12"/>
-        <v>5.5309948309785195</v>
-      </c>
-      <c r="F79" s="2">
-        <f t="shared" si="12"/>
-        <v>0.18181818181818193</v>
-      </c>
-      <c r="G79" s="2">
-        <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="2"/>
       <c r="H79" s="5"/>
     </row>
   </sheetData>
@@ -7941,7 +8132,7 @@
   <dimension ref="A1:I79"/>
   <sheetViews>
     <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B71" sqref="B71"/>
+      <selection activeCell="A74" sqref="A74:G79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -9695,147 +9886,26 @@
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>35</v>
-      </c>
-      <c r="B74">
-        <v>1</v>
-      </c>
-      <c r="C74">
-        <v>4.3E-3</v>
-      </c>
-      <c r="D74" s="1">
-        <v>0</v>
-      </c>
-      <c r="E74">
-        <v>0</v>
-      </c>
-      <c r="F74">
-        <v>1.0909090909090899</v>
-      </c>
-      <c r="G74">
-        <v>12</v>
-      </c>
+      <c r="D74" s="1"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>35</v>
-      </c>
-      <c r="B75">
-        <v>2</v>
-      </c>
-      <c r="C75">
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="D75" s="1">
-        <v>1E-4</v>
-      </c>
-      <c r="E75">
-        <v>0.50004192247137602</v>
-      </c>
-      <c r="F75">
-        <v>0.63636363636363602</v>
-      </c>
-      <c r="G75">
-        <v>7</v>
-      </c>
+      <c r="D75" s="1"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>35</v>
-      </c>
-      <c r="B76">
-        <v>3</v>
-      </c>
-      <c r="C76">
-        <v>2.8999999999999998E-3</v>
-      </c>
-      <c r="D76" s="1">
-        <v>0</v>
-      </c>
-      <c r="E76">
-        <v>0.21054494808576399</v>
-      </c>
-      <c r="F76">
-        <v>0.72727272727272696</v>
-      </c>
-      <c r="G76">
-        <v>8</v>
-      </c>
+      <c r="D76" s="1"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>35</v>
-      </c>
-      <c r="B77">
-        <v>4</v>
-      </c>
-      <c r="C77">
-        <v>3.5999999999999999E-3</v>
-      </c>
-      <c r="D77" s="1">
-        <v>1E-4</v>
-      </c>
-      <c r="E77">
-        <v>0.50004192247137602</v>
-      </c>
-      <c r="F77">
-        <v>0.63636363636363602</v>
-      </c>
-      <c r="G77">
-        <v>7</v>
-      </c>
+      <c r="D77" s="1"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
-        <v>35</v>
-      </c>
-      <c r="B78">
-        <v>5</v>
-      </c>
-      <c r="C78">
-        <v>1.8E-3</v>
-      </c>
-      <c r="D78" s="1">
-        <v>0</v>
-      </c>
-      <c r="E78">
-        <v>1.5626164502245199</v>
-      </c>
-      <c r="F78">
-        <v>0.45454545454545497</v>
-      </c>
-      <c r="G78">
-        <v>5</v>
-      </c>
+      <c r="D78" s="1"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
-        <v>35</v>
-      </c>
-      <c r="B79" t="s">
-        <v>1</v>
-      </c>
-      <c r="C79" s="2">
-        <f>AVERAGE(C74:C78)</f>
-        <v>3.0199999999999997E-3</v>
-      </c>
-      <c r="D79" s="2">
-        <f t="shared" ref="D79:G79" si="12">AVERAGE(D74:D78)</f>
-        <v>4.0000000000000003E-5</v>
-      </c>
-      <c r="E79" s="2">
-        <f t="shared" si="12"/>
-        <v>0.55464904865060716</v>
-      </c>
-      <c r="F79" s="2">
-        <f t="shared" si="12"/>
-        <v>0.70909090909090877</v>
-      </c>
-      <c r="G79" s="2">
-        <f t="shared" si="12"/>
-        <v>7.8</v>
-      </c>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="2"/>
       <c r="H79" s="5"/>
     </row>
   </sheetData>
@@ -9849,7 +9919,7 @@
   <dimension ref="A1:I79"/>
   <sheetViews>
     <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A74" sqref="A74:XFD79"/>
+      <selection activeCell="A74" sqref="A74:G79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -11602,148 +11672,21 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>35</v>
-      </c>
-      <c r="B74">
-        <v>1</v>
-      </c>
-      <c r="C74">
-        <v>8.5900000000000004E-2</v>
-      </c>
-      <c r="D74">
-        <v>2.4199999999999999E-2</v>
-      </c>
-      <c r="E74">
-        <v>0</v>
-      </c>
-      <c r="F74">
-        <v>1.0909090909090899</v>
-      </c>
-      <c r="G74">
-        <v>12</v>
-      </c>
-    </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>35</v>
-      </c>
-      <c r="B75">
-        <v>2</v>
-      </c>
-      <c r="C75">
-        <v>8.5900000000000004E-2</v>
-      </c>
-      <c r="D75" s="1">
-        <v>2.52E-2</v>
-      </c>
-      <c r="E75">
-        <v>5.0004658095770503E-2</v>
-      </c>
-      <c r="F75">
-        <v>0.81818181818181801</v>
-      </c>
-      <c r="G75">
-        <v>9</v>
-      </c>
+      <c r="D75" s="1"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>35</v>
-      </c>
-      <c r="B76">
-        <v>3</v>
-      </c>
-      <c r="C76">
-        <v>8.1299999999999997E-2</v>
-      </c>
-      <c r="D76" s="1">
-        <v>2.2800000000000001E-2</v>
-      </c>
-      <c r="E76">
-        <v>0.50004192247137602</v>
-      </c>
-      <c r="F76">
-        <v>0.63636363636363602</v>
-      </c>
-      <c r="G76">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>35</v>
-      </c>
-      <c r="B77">
-        <v>4</v>
-      </c>
-      <c r="C77">
-        <v>9.4899999999999998E-2</v>
-      </c>
-      <c r="D77">
-        <v>2.86E-2</v>
-      </c>
-      <c r="E77">
-        <v>0</v>
-      </c>
-      <c r="F77">
-        <v>1.0909090909090899</v>
-      </c>
-      <c r="G77">
-        <v>12</v>
-      </c>
+      <c r="D76" s="1"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
-        <v>35</v>
-      </c>
-      <c r="B78">
-        <v>5</v>
-      </c>
-      <c r="C78">
-        <v>9.2200000000000004E-2</v>
-      </c>
-      <c r="D78" s="1">
-        <v>2.6100000000000002E-2</v>
-      </c>
-      <c r="E78">
-        <v>0</v>
-      </c>
-      <c r="F78">
-        <v>1.0909090909090899</v>
-      </c>
-      <c r="G78">
-        <v>12</v>
-      </c>
+      <c r="D78" s="1"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
-        <v>35</v>
-      </c>
-      <c r="B79" t="s">
-        <v>1</v>
-      </c>
-      <c r="C79" s="2">
-        <f>AVERAGE(C74:C78)</f>
-        <v>8.8039999999999993E-2</v>
-      </c>
-      <c r="D79" s="2">
-        <f t="shared" ref="D79:G79" si="12">AVERAGE(D74:D78)</f>
-        <v>2.5380000000000003E-2</v>
-      </c>
-      <c r="E79" s="2">
-        <f t="shared" si="12"/>
-        <v>0.1100093161134293</v>
-      </c>
-      <c r="F79" s="2">
-        <f t="shared" si="12"/>
-        <v>0.94545454545454477</v>
-      </c>
-      <c r="G79" s="2">
-        <f t="shared" si="12"/>
-        <v>10.4</v>
-      </c>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="2"/>
       <c r="H79" s="5"/>
     </row>
   </sheetData>
@@ -11756,8 +11699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{315763ED-3337-484B-B380-835732FE8D66}">
   <dimension ref="A1:I79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="A74" sqref="A74:XFD79"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A74" sqref="A74:G79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -13495,148 +13438,21 @@
         <v>12.2</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>35</v>
-      </c>
-      <c r="B74">
-        <v>1</v>
-      </c>
-      <c r="C74">
-        <v>0.35289999999999999</v>
-      </c>
-      <c r="D74">
-        <v>0.2177</v>
-      </c>
-      <c r="E74">
-        <v>0.94125099907908005</v>
-      </c>
-      <c r="F74">
-        <v>0.54545454545454497</v>
-      </c>
-      <c r="G74">
-        <v>6</v>
-      </c>
-    </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>35</v>
-      </c>
-      <c r="B75">
-        <v>2</v>
-      </c>
-      <c r="C75">
-        <v>0.34279999999999999</v>
-      </c>
-      <c r="D75" s="1">
-        <v>0.20300000000000001</v>
-      </c>
-      <c r="E75">
-        <v>0</v>
-      </c>
-      <c r="F75">
-        <v>0.90909090909090895</v>
-      </c>
-      <c r="G75">
-        <v>10</v>
-      </c>
+      <c r="D75" s="1"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>35</v>
-      </c>
-      <c r="B76">
-        <v>3</v>
-      </c>
-      <c r="C76">
-        <v>0.33019999999999999</v>
-      </c>
-      <c r="D76" s="1">
-        <v>0.19359999999999999</v>
-      </c>
-      <c r="E76">
-        <v>0.94125099907908005</v>
-      </c>
-      <c r="F76">
-        <v>0.54545454545454497</v>
-      </c>
-      <c r="G76">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>35</v>
-      </c>
-      <c r="B77">
-        <v>4</v>
-      </c>
-      <c r="C77">
-        <v>0.35549999999999998</v>
-      </c>
-      <c r="D77">
-        <v>0.2157</v>
-      </c>
-      <c r="E77">
-        <v>2.40016768754221</v>
-      </c>
-      <c r="F77">
-        <v>0.36363636363636398</v>
-      </c>
-      <c r="G77">
-        <v>4</v>
-      </c>
+      <c r="D76" s="1"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
-        <v>35</v>
-      </c>
-      <c r="B78">
-        <v>5</v>
-      </c>
-      <c r="C78">
-        <v>0.34770000000000001</v>
-      </c>
-      <c r="D78" s="1">
-        <v>0.20580000000000001</v>
-      </c>
-      <c r="E78">
-        <v>2.40016768754221</v>
-      </c>
-      <c r="F78">
-        <v>0.36363636363636398</v>
-      </c>
-      <c r="G78">
-        <v>4</v>
-      </c>
+      <c r="D78" s="1"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
-        <v>35</v>
-      </c>
-      <c r="B79" t="s">
-        <v>1</v>
-      </c>
-      <c r="C79" s="2">
-        <f>AVERAGE(C74:C78)</f>
-        <v>0.34581999999999996</v>
-      </c>
-      <c r="D79" s="2">
-        <f t="shared" ref="D79:G79" si="12">AVERAGE(D74:D78)</f>
-        <v>0.20716000000000001</v>
-      </c>
-      <c r="E79" s="2">
-        <f t="shared" si="12"/>
-        <v>1.3365674746485159</v>
-      </c>
-      <c r="F79" s="2">
-        <f t="shared" si="12"/>
-        <v>0.5454545454545453</v>
-      </c>
-      <c r="G79" s="2">
-        <f t="shared" si="12"/>
-        <v>6</v>
-      </c>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="2"/>
       <c r="H79" s="5"/>
     </row>
   </sheetData>
@@ -13647,10 +13463,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1BC6655-E885-45D6-A947-A764AE464A1D}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView zoomScale="71" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" zoomScale="71" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -13695,10 +13511,10 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>1.8E-3</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
+        <v>2.98E-2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>5.9999999999999995E-4</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -13718,10 +13534,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="1">
-        <v>2.3999999999999998E-3</v>
+        <v>2.58E-2</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1.8E-3</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -13741,7 +13557,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="1">
-        <v>2.0000000000000001E-4</v>
+        <v>1.32E-2</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -13764,10 +13580,10 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>2.3999999999999998E-3</v>
+        <v>4.02E-2</v>
       </c>
       <c r="D5" s="1">
-        <v>0</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -13787,10 +13603,10 @@
         <v>5</v>
       </c>
       <c r="C6" s="1">
-        <v>1E-3</v>
+        <v>2.8199999999999999E-2</v>
       </c>
       <c r="D6" s="1">
-        <v>0</v>
+        <v>5.9999999999999995E-4</v>
       </c>
       <c r="E6">
         <v>0.89297367015715901</v>
@@ -13811,11 +13627,11 @@
       </c>
       <c r="C7" s="2">
         <f>AVERAGE(C2:C6)</f>
-        <v>1.5599999999999998E-3</v>
+        <v>2.7439999999999999E-2</v>
       </c>
       <c r="D7" s="2">
         <f t="shared" ref="D7:G7" si="0">AVERAGE(D2:D6)</f>
-        <v>0</v>
+        <v>7.5999999999999993E-4</v>
       </c>
       <c r="E7" s="2">
         <f t="shared" si="0"/>
@@ -13838,10 +13654,10 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>2E-3</v>
+        <v>3.1E-2</v>
       </c>
       <c r="D8" s="1">
-        <v>2.0000000000000001E-4</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="E8">
         <v>0.21054496511227</v>
@@ -13861,10 +13677,10 @@
         <v>2</v>
       </c>
       <c r="C9">
-        <v>2.5999999999999999E-3</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>1.8E-3</v>
       </c>
       <c r="E9">
         <v>0.21054495937538101</v>
@@ -13884,10 +13700,10 @@
         <v>3</v>
       </c>
       <c r="C10">
-        <v>1.1999999999999999E-3</v>
+        <v>2.5600000000000001E-2</v>
       </c>
       <c r="D10" s="1">
-        <v>0</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="E10">
         <v>0.21054496511227</v>
@@ -13907,10 +13723,10 @@
         <v>4</v>
       </c>
       <c r="C11">
-        <v>4.7999999999999996E-3</v>
+        <v>6.0199999999999997E-2</v>
       </c>
       <c r="D11" s="1">
-        <v>4.0000000000000002E-4</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="E11">
         <v>1.5626173863230799</v>
@@ -13930,10 +13746,10 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>1.1999999999999999E-3</v>
+        <v>3.1199999999999999E-2</v>
       </c>
       <c r="D12" s="1">
-        <v>2.0000000000000001E-4</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="E12">
         <v>1.6335618376096299</v>
@@ -13954,11 +13770,11 @@
       </c>
       <c r="C13" s="2">
         <f>AVERAGE(C8:C12)</f>
-        <v>2.3599999999999997E-3</v>
+        <v>3.4799999999999998E-2</v>
       </c>
       <c r="D13" s="2">
         <f t="shared" ref="D13:G13" si="1">AVERAGE(D8:D12)</f>
-        <v>1.6000000000000001E-4</v>
+        <v>1.3200000000000002E-3</v>
       </c>
       <c r="E13" s="2">
         <f t="shared" si="1"/>
@@ -13971,6 +13787,149 @@
       <c r="G13" s="2">
         <f t="shared" si="1"/>
         <v>9.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="D14">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="E14">
+        <v>3.7322246854445198</v>
+      </c>
+      <c r="F14">
+        <v>0.91713221601489803</v>
+      </c>
+      <c r="G14">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="D15">
+        <v>2.4E-2</v>
+      </c>
+      <c r="E15">
+        <v>3.66922655537119</v>
+      </c>
+      <c r="F15">
+        <v>1.00465549348231</v>
+      </c>
+      <c r="G15">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.183</v>
+      </c>
+      <c r="D16">
+        <v>2.3E-2</v>
+      </c>
+      <c r="E16">
+        <v>3.67356814415426</v>
+      </c>
+      <c r="F16">
+        <v>0.97579143389199297</v>
+      </c>
+      <c r="G16">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.187</v>
+      </c>
+      <c r="D17">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="E17">
+        <v>3.8380817651782699</v>
+      </c>
+      <c r="F17">
+        <v>0.96275605214152704</v>
+      </c>
+      <c r="G17">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.187</v>
+      </c>
+      <c r="D18">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="E18">
+        <v>3.8468165680347801</v>
+      </c>
+      <c r="F18">
+        <v>1.0549348230912501</v>
+      </c>
+      <c r="G18">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="2">
+        <f t="shared" ref="C19:E19" si="2">AVERAGE(C16:C18)</f>
+        <v>0.18566666666666665</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" si="2"/>
+        <v>2.5666666666666667E-2</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" si="2"/>
+        <v>3.7861554924557699</v>
+      </c>
+      <c r="F19" s="2">
+        <f>AVERAGE(F16:F18)</f>
+        <v>0.99782743637492333</v>
+      </c>
+      <c r="G19" s="2">
+        <f>AVERAGE(G16:G18)</f>
+        <v>185.66666666666666</v>
       </c>
     </row>
   </sheetData>
@@ -13981,10 +13940,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B6DC9B1-9737-40AA-ADE7-0FAD4E9A7915}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:G13"/>
+      <selection activeCell="B9" sqref="A1:I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -14029,10 +13988,10 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>2.6200000000000001E-2</v>
+        <v>8.3799999999999999E-2</v>
       </c>
       <c r="D2">
-        <v>9.7999999999999997E-3</v>
+        <v>2.0199999999999999E-2</v>
       </c>
       <c r="E2">
         <v>0.34619580849963499</v>
@@ -14052,10 +14011,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="1">
-        <v>2.3599999999999999E-2</v>
+        <v>7.8600000000000003E-2</v>
       </c>
       <c r="D3">
-        <v>7.7999999999999996E-3</v>
+        <v>1.78E-2</v>
       </c>
       <c r="E3">
         <v>0.94125104423670403</v>
@@ -14075,10 +14034,10 @@
         <v>3</v>
       </c>
       <c r="C4" s="1">
-        <v>2.4799999999999999E-2</v>
+        <v>8.0600000000000005E-2</v>
       </c>
       <c r="D4">
-        <v>6.6E-3</v>
+        <v>1.9199999999999998E-2</v>
       </c>
       <c r="E4">
         <v>0.21054495937538101</v>
@@ -14098,10 +14057,10 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>4.8599999999999997E-2</v>
+        <v>0.1414</v>
       </c>
       <c r="D5" s="1">
-        <v>1.38E-2</v>
+        <v>3.6799999999999999E-2</v>
       </c>
       <c r="E5">
         <v>0.21054495937538101</v>
@@ -14121,10 +14080,10 @@
         <v>5</v>
       </c>
       <c r="C6" s="1">
-        <v>2.6800000000000001E-2</v>
+        <v>8.0199999999999994E-2</v>
       </c>
       <c r="D6" s="1">
-        <v>6.4000000000000003E-3</v>
+        <v>1.9E-2</v>
       </c>
       <c r="E6">
         <v>0.210545016204155</v>
@@ -14145,11 +14104,11 @@
       </c>
       <c r="C7" s="2">
         <f>AVERAGE(C2:C6)</f>
-        <v>0.03</v>
+        <v>9.2919999999999989E-2</v>
       </c>
       <c r="D7" s="2">
         <f t="shared" ref="D7:G7" si="0">AVERAGE(D2:D6)</f>
-        <v>8.8800000000000007E-3</v>
+        <v>2.2600000000000002E-2</v>
       </c>
       <c r="E7" s="2">
         <f t="shared" si="0"/>
@@ -14172,10 +14131,10 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>2.7400000000000001E-2</v>
+        <v>8.4400000000000003E-2</v>
       </c>
       <c r="D8">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -14195,10 +14154,10 @@
         <v>2</v>
       </c>
       <c r="C9">
-        <v>2.8799999999999999E-2</v>
+        <v>8.5599999999999996E-2</v>
       </c>
       <c r="D9">
-        <v>9.4000000000000004E-3</v>
+        <v>2.06E-2</v>
       </c>
       <c r="E9">
         <v>0.500041947872777</v>
@@ -14218,10 +14177,10 @@
         <v>3</v>
       </c>
       <c r="C10">
-        <v>2.5999999999999999E-2</v>
+        <v>8.1799999999999998E-2</v>
       </c>
       <c r="D10" s="1">
-        <v>7.1999999999999998E-3</v>
+        <v>0.02</v>
       </c>
       <c r="E10">
         <v>0.21054495937538101</v>
@@ -14241,10 +14200,10 @@
         <v>4</v>
       </c>
       <c r="C11">
-        <v>5.1400000000000001E-2</v>
+        <v>0.14480000000000001</v>
       </c>
       <c r="D11">
-        <v>1.6E-2</v>
+        <v>3.9399999999999998E-2</v>
       </c>
       <c r="E11">
         <v>0.94125104423670403</v>
@@ -14264,10 +14223,10 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>3.32E-2</v>
+        <v>9.0800000000000006E-2</v>
       </c>
       <c r="D12" s="1">
-        <v>8.9999999999999993E-3</v>
+        <v>2.4E-2</v>
       </c>
       <c r="E12">
         <v>0.500041947872777</v>
@@ -14288,11 +14247,11 @@
       </c>
       <c r="C13" s="2">
         <f>AVERAGE(C8:C12)</f>
-        <v>3.3360000000000001E-2</v>
+        <v>9.7479999999999983E-2</v>
       </c>
       <c r="D13" s="2">
         <f t="shared" ref="D13:G13" si="1">AVERAGE(D8:D12)</f>
-        <v>1.0319999999999999E-2</v>
+        <v>2.4799999999999999E-2</v>
       </c>
       <c r="E13" s="2">
         <f t="shared" si="1"/>
@@ -14305,6 +14264,149 @@
       <c r="G13" s="2">
         <f t="shared" si="1"/>
         <v>7.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="D14">
+        <v>0.29699999999999999</v>
+      </c>
+      <c r="E14">
+        <v>15.144868022727101</v>
+      </c>
+      <c r="F14">
+        <v>1.0679702048417099</v>
+      </c>
+      <c r="G14">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="D15">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="E15">
+        <v>15.472530188731</v>
+      </c>
+      <c r="F15">
+        <v>0.91061452513966501</v>
+      </c>
+      <c r="G15">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.55800000000000005</v>
+      </c>
+      <c r="D16">
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="E16">
+        <v>15.4334300513211</v>
+      </c>
+      <c r="F16">
+        <v>0.92178770949720701</v>
+      </c>
+      <c r="G16">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.51400000000000001</v>
+      </c>
+      <c r="D17">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="E17">
+        <v>15.0205914258412</v>
+      </c>
+      <c r="F17">
+        <v>0.983240223463687</v>
+      </c>
+      <c r="G17">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.51300000000000001</v>
+      </c>
+      <c r="D18">
+        <v>0.254</v>
+      </c>
+      <c r="E18">
+        <v>14.240377602308101</v>
+      </c>
+      <c r="F18">
+        <v>1.01582867783985</v>
+      </c>
+      <c r="G18">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="2">
+        <f t="shared" ref="C19:E19" si="2">AVERAGE(C16:C18)</f>
+        <v>0.52833333333333332</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" si="2"/>
+        <v>0.27499999999999997</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" si="2"/>
+        <v>14.898133026490134</v>
+      </c>
+      <c r="F19" s="2">
+        <f>AVERAGE(F16:F18)</f>
+        <v>0.97361887026691463</v>
+      </c>
+      <c r="G19" s="2">
+        <f>AVERAGE(G16:G18)</f>
+        <v>528.33333333333337</v>
       </c>
     </row>
   </sheetData>
